--- a/algo trading/problem4.xlsx
+++ b/algo trading/problem4.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\vdiprofiles.it.fordham.edu\VDI-Profiles\Citrix_User_Profiles\jbi5\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bjd\git\Finance\algo trading\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -16,7 +16,7 @@
     <sheet name="lc" sheetId="12" r:id="rId2"/>
     <sheet name="sc" sheetId="13" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="32">
   <si>
     <t>SE</t>
   </si>
@@ -165,19 +165,19 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="5">
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="mmm\-yyyy"/>
-    <numFmt numFmtId="165" formatCode="0.0000"/>
-    <numFmt numFmtId="166" formatCode="#,##0.0000000000000000"/>
-    <numFmt numFmtId="171" formatCode="0.0000000000000000"/>
+    <numFmt numFmtId="176" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="mmm\-yyyy"/>
+    <numFmt numFmtId="178" formatCode="0.0000"/>
+    <numFmt numFmtId="179" formatCode="#,##0.0000000000000000"/>
+    <numFmt numFmtId="180" formatCode="0.0000000000000000"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -186,7 +186,7 @@
       <u/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -194,7 +194,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -208,7 +208,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -229,7 +229,7 @@
       <u/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -240,6 +240,13 @@
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -338,7 +345,7 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="50">
@@ -368,29 +375,29 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -411,26 +418,26 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="179" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Percent" xfId="2" builtinId="5"/>
+    <cellStyle name="百分比" xfId="2" builtinId="5"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -747,7 +754,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="B1" t="s">
@@ -756,6 +763,7 @@
     </row>
     <row r="2" spans="1:2"/>
   </sheetData>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
@@ -767,30 +775,31 @@
   <dimension ref="A1:AF126"/>
   <sheetViews>
     <sheetView topLeftCell="A90" workbookViewId="0">
-      <selection activeCell="B126" sqref="A126:B126"/>
+      <selection activeCell="G127" sqref="G127"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="35.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.7109375" style="36" customWidth="1"/>
-    <col min="9" max="13" width="9.140625" style="36"/>
-    <col min="15" max="15" width="9.140625" style="36"/>
-    <col min="16" max="16" width="9.42578125" style="36" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="25.28515625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="35.28515625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="37.85546875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="35.125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.75" style="36" customWidth="1"/>
+    <col min="9" max="13" width="9.125" style="36"/>
+    <col min="15" max="15" width="9.125" style="36"/>
+    <col min="16" max="16" width="9.375" style="36" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="25.25" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="35.25" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="37.875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="25.125" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="30" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="35.140625" style="36" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="35.140625" style="36" customWidth="1"/>
-    <col min="24" max="24" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="30" max="32" width="11.85546875" style="36" customWidth="1"/>
+    <col min="22" max="22" width="35.125" style="36" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="35.125" style="36" customWidth="1"/>
+    <col min="24" max="24" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="30" max="32" width="11.875" style="36" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:32">
@@ -799,7 +808,7 @@
       </c>
       <c r="P1" s="37"/>
     </row>
-    <row r="2" spans="1:32">
+    <row r="2" spans="1:32" ht="14.25">
       <c r="A2" s="5"/>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
@@ -837,13 +846,13 @@
       </c>
       <c r="F4" s="10"/>
       <c r="P4" s="7"/>
-      <c r="Q4" s="41" t="s">
+      <c r="Q4" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="R4" s="41"/>
-      <c r="S4" s="41"/>
-      <c r="T4" s="41"/>
-      <c r="U4" s="41"/>
+      <c r="R4" s="48"/>
+      <c r="S4" s="48"/>
+      <c r="T4" s="48"/>
+      <c r="U4" s="48"/>
       <c r="V4" s="2"/>
       <c r="W4" s="32"/>
       <c r="X4" s="2"/>
@@ -856,7 +865,7 @@
       <c r="AE4" s="2"/>
       <c r="AF4" s="2"/>
     </row>
-    <row r="5" spans="1:32">
+    <row r="5" spans="1:32" ht="14.25">
       <c r="A5" s="11" t="s">
         <v>7</v>
       </c>
@@ -1359,20 +1368,20 @@
         <v>-9.5285001424105786E-4</v>
       </c>
     </row>
-    <row r="18" spans="1:32" ht="15.75" thickBot="1">
-      <c r="A18" s="42">
+    <row r="18" spans="1:32" ht="14.25" thickBot="1">
+      <c r="A18" s="41">
         <v>38748</v>
       </c>
-      <c r="B18" s="43">
+      <c r="B18" s="42">
         <v>4573083.343410749</v>
       </c>
-      <c r="C18" s="44">
+      <c r="C18" s="43">
         <v>0.25180000000000002</v>
       </c>
-      <c r="D18" s="43">
+      <c r="D18" s="42">
         <v>454712.71425266034</v>
       </c>
-      <c r="E18" s="44">
+      <c r="E18" s="43">
         <v>0.35599999999999998</v>
       </c>
       <c r="F18" s="31">
@@ -1387,7 +1396,7 @@
       <c r="M18" s="31"/>
       <c r="N18" s="31"/>
       <c r="O18" s="31"/>
-      <c r="P18" s="42">
+      <c r="P18" s="41">
         <v>38748</v>
       </c>
       <c r="Q18" s="30">
@@ -1419,7 +1428,7 @@
       <c r="AE18" s="6"/>
       <c r="AF18" s="6"/>
     </row>
-    <row r="19" spans="1:32">
+    <row r="19" spans="1:32" ht="15">
       <c r="A19" s="14">
         <v>38776</v>
       </c>
@@ -1464,7 +1473,7 @@
       <c r="P19" s="14">
         <v>38776</v>
       </c>
-      <c r="Q19" s="46">
+      <c r="Q19" s="45">
         <f>LN(B19)-LN(B18)</f>
         <v>-0.11451907930729988</v>
       </c>
@@ -1571,7 +1580,7 @@
         <v>1310.6099999999999</v>
       </c>
       <c r="G21" s="36">
-        <f t="shared" ref="G7:G70" si="5">$N$20+$M$20*R21+$L$20*S21+$K$20*T21+$J$20*U21</f>
+        <f t="shared" ref="G21:G70" si="5">$N$20+$M$20*R21+$L$20*S21+$K$20*T21+$J$20*U21</f>
         <v>8.9468735767768912E-2</v>
       </c>
       <c r="I21" s="34" t="s">
@@ -4021,7 +4030,7 @@
         <v>1030.71</v>
       </c>
       <c r="G71" s="36">
-        <f t="shared" ref="G71:G125" si="6">$N$20+$M$20*R71+$L$20*S71+$K$20*T71+$J$20*U71</f>
+        <f t="shared" ref="G71:G124" si="6">$N$20+$M$20*R71+$L$20*S71+$K$20*T71+$J$20*U71</f>
         <v>-0.14133623995955266</v>
       </c>
       <c r="P71" s="14">
@@ -4087,11 +4096,11 @@
         <v>-1.7128630308240744E-2</v>
       </c>
       <c r="T72">
-        <f t="shared" ref="T72:T126" si="7">LN(C72)-LN(C71)</f>
+        <f t="shared" ref="T72:T124" si="7">LN(C72)-LN(C71)</f>
         <v>-0.10113140206394133</v>
       </c>
       <c r="U72">
-        <f t="shared" ref="U72:U126" si="8">LN(F72)-LN(F71)</f>
+        <f t="shared" ref="U72:U125" si="8">LN(F72)-LN(F71)</f>
         <v>6.6515783274589069E-2</v>
       </c>
     </row>
@@ -4173,7 +4182,7 @@
         <v>-3.2519747638618313E-2</v>
       </c>
       <c r="R74" s="29">
-        <f t="shared" ref="R74:R125" si="10">LN(B73)-LN(B72)</f>
+        <f t="shared" ref="R74:R124" si="10">LN(B73)-LN(B72)</f>
         <v>-0.13096239434753976</v>
       </c>
       <c r="S74" s="29">
@@ -6577,7 +6586,7 @@
         <f t="shared" si="11"/>
         <v>-2.3646334651443723E-2</v>
       </c>
-      <c r="T125" s="45">
+      <c r="T125" s="44">
         <f>LN(C125)-LN(C124)</f>
         <v>7.4357275978280679E-2</v>
       </c>
@@ -6590,24 +6599,24 @@
       <c r="A126" s="22">
         <v>42035</v>
       </c>
-      <c r="B126" s="49">
+      <c r="B126" s="47">
         <f>EXP(Q126)*B125</f>
-        <v>4709337.1376343258</v>
+        <v>4544711.6587167783</v>
       </c>
       <c r="G126" s="36">
         <f>$N$20+$M$20*R126+$L$20*S126+$K$20*T126+$J$20*U126</f>
-        <v>1.1068912644786488E-2</v>
-      </c>
-      <c r="L126" s="47" t="s">
+        <v>-2.4513966179441807E-2</v>
+      </c>
+      <c r="L126" s="49" t="s">
         <v>31</v>
       </c>
-      <c r="M126" s="47"/>
+      <c r="M126" s="49"/>
       <c r="P126" s="22">
         <v>42035</v>
       </c>
-      <c r="Q126" s="48">
+      <c r="Q126" s="46">
         <f>G126</f>
-        <v>1.1068912644786488E-2</v>
+        <v>-2.4513966179441807E-2</v>
       </c>
       <c r="R126" s="29">
         <f>LN(B125)-LN(B124)</f>
@@ -6618,12 +6627,10 @@
         <v>0.18469194862135119</v>
       </c>
       <c r="T126" s="18">
-        <f>T125</f>
-        <v>7.4357275978280679E-2</v>
+        <v>0</v>
       </c>
       <c r="U126" s="36">
-        <f>U125</f>
-        <v>-1.8066748345377803E-3</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -6631,57 +6638,64 @@
     <mergeCell ref="Q4:U4"/>
     <mergeCell ref="L126:M126"/>
   </mergeCells>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AD126"/>
+  <dimension ref="A1:AE126"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A98" workbookViewId="0">
-      <selection activeCell="E129" sqref="E129"/>
+    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="G127" sqref="G127"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="36" bestFit="1" customWidth="1"/>
-    <col min="2" max="6" width="9" style="36"/>
-    <col min="7" max="7" width="35.140625" style="36" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="22.85546875" style="36" customWidth="1"/>
-    <col min="9" max="9" width="16.7109375" style="36" customWidth="1"/>
-    <col min="10" max="10" width="10.85546875" style="36" customWidth="1"/>
+    <col min="1" max="1" width="9.125" style="36" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.75" style="36" bestFit="1" customWidth="1"/>
+    <col min="3" max="6" width="9" style="36"/>
+    <col min="7" max="7" width="35.125" style="36" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.875" style="36" customWidth="1"/>
+    <col min="9" max="9" width="16.75" style="36" customWidth="1"/>
+    <col min="10" max="10" width="10.875" style="36" customWidth="1"/>
     <col min="11" max="11" width="12" style="36" bestFit="1" customWidth="1"/>
     <col min="12" max="15" width="9" style="36"/>
-    <col min="16" max="16" width="20.7109375" style="36" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="35.28515625" style="36" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="37.85546875" style="36" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="25.140625" style="36" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="25.42578125" style="36" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="25.42578125" style="36" customWidth="1"/>
-    <col min="22" max="22" width="10.42578125" style="36" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="12.42578125" style="36" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="11.85546875" style="36" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="12.42578125" style="36" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="11.85546875" style="36" bestFit="1" customWidth="1"/>
-    <col min="28" max="30" width="11.85546875" style="36" customWidth="1"/>
-    <col min="31" max="16384" width="9" style="36"/>
+    <col min="16" max="16" width="9.125" style="36" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="21.625" style="36" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="35.25" style="36" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="37.875" style="36" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="25.125" style="36" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="25.375" style="36" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="25.375" style="36" customWidth="1"/>
+    <col min="23" max="23" width="10.375" style="36" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="12.375" style="36" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="11.875" style="36" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="12.375" style="36" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="11.875" style="36" bestFit="1" customWidth="1"/>
+    <col min="29" max="31" width="11.875" style="36" customWidth="1"/>
+    <col min="32" max="16384" width="9" style="36"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30">
+    <row r="1" spans="1:31">
       <c r="A1" s="37" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:30">
+      <c r="P1" s="37" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:31" ht="14.25">
       <c r="A2" s="5"/>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
       <c r="D2" s="5"/>
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
-    </row>
-    <row r="3" spans="1:30">
+      <c r="P2" s="5"/>
+    </row>
+    <row r="3" spans="1:31">
       <c r="A3" s="6" t="s">
         <v>4</v>
       </c>
@@ -6690,8 +6704,11 @@
       <c r="D3" s="40"/>
       <c r="E3" s="40"/>
       <c r="F3" s="40"/>
-    </row>
-    <row r="4" spans="1:30">
+      <c r="P3" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:31">
       <c r="A4" s="7"/>
       <c r="B4" s="8" t="s">
         <v>5</v>
@@ -6706,14 +6723,14 @@
         <v>6</v>
       </c>
       <c r="F4" s="10"/>
-      <c r="P4" s="41" t="s">
+      <c r="P4" s="7"/>
+      <c r="Q4" s="48" t="s">
         <v>29</v>
       </c>
-      <c r="Q4" s="41"/>
-      <c r="R4" s="41"/>
-      <c r="S4" s="41"/>
-      <c r="T4" s="41"/>
-      <c r="U4" s="2"/>
+      <c r="R4" s="48"/>
+      <c r="S4" s="48"/>
+      <c r="T4" s="48"/>
+      <c r="U4" s="48"/>
       <c r="V4" s="2"/>
       <c r="W4" s="2"/>
       <c r="X4" s="2"/>
@@ -6723,8 +6740,9 @@
       <c r="AB4" s="2"/>
       <c r="AC4" s="2"/>
       <c r="AD4" s="2"/>
-    </row>
-    <row r="5" spans="1:30">
+      <c r="AE4" s="2"/>
+    </row>
+    <row r="5" spans="1:31" ht="14.25">
       <c r="A5" s="11" t="s">
         <v>7</v>
       </c>
@@ -6746,23 +6764,26 @@
       <c r="G5" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="P5" s="28" t="s">
+      <c r="P5" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q5" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="Q5" s="36" t="s">
+      <c r="R5" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="R5" s="36" t="s">
+      <c r="S5" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="S5" s="36" t="s">
+      <c r="T5" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="T5" s="36" t="s">
+      <c r="U5" s="36" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:30">
+    <row r="6" spans="1:31">
       <c r="A6" s="14">
         <v>38383</v>
       </c>
@@ -6781,11 +6802,14 @@
       <c r="F6" s="36">
         <v>1181.27</v>
       </c>
-      <c r="P6" s="36" t="s">
+      <c r="P6" s="14">
+        <v>38383</v>
+      </c>
+      <c r="Q6" s="36" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:30">
+    <row r="7" spans="1:31">
       <c r="A7" s="14">
         <v>38411</v>
       </c>
@@ -6804,20 +6828,23 @@
       <c r="F7" s="36">
         <v>1203.5999999999999</v>
       </c>
-      <c r="P7" s="29">
+      <c r="P7" s="14">
+        <v>38411</v>
+      </c>
+      <c r="Q7" s="29">
         <f>LN(D7)-LN(D6)</f>
         <v>-3.5996475428497376E-2</v>
       </c>
-      <c r="S7" s="36">
+      <c r="T7" s="36">
         <f>LN(E7)-LN(E6)</f>
         <v>2.1890890171607502E-2</v>
       </c>
-      <c r="T7" s="36">
+      <c r="U7" s="36">
         <f>LN(F7)-LN(F6)</f>
         <v>1.8726934874337964E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:30">
+    <row r="8" spans="1:31">
       <c r="A8" s="14">
         <v>38442</v>
       </c>
@@ -6836,24 +6863,27 @@
       <c r="F8" s="36">
         <v>1180.5899999999999</v>
       </c>
-      <c r="P8" s="29">
-        <f t="shared" ref="P8:P71" si="0">LN(D8)-LN(D7)</f>
+      <c r="P8" s="14">
+        <v>38442</v>
+      </c>
+      <c r="Q8" s="29">
+        <f>LN(D8)-LN(D7)</f>
         <v>1.2205604076797272E-2</v>
       </c>
-      <c r="Q8" s="29">
+      <c r="R8" s="29">
         <f>LN(D7)-LN(D6)</f>
         <v>-3.5996475428497376E-2</v>
       </c>
-      <c r="S8" s="36">
-        <f t="shared" ref="S8:S71" si="1">LN(E8)-LN(E7)</f>
+      <c r="T8" s="36">
+        <f>LN(E8)-LN(E7)</f>
         <v>-6.4063323789734117E-2</v>
       </c>
-      <c r="T8" s="36">
-        <f t="shared" ref="T8:T71" si="2">LN(F8)-LN(F7)</f>
+      <c r="U8" s="36">
+        <f>LN(F8)-LN(F7)</f>
         <v>-1.9302752254528599E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:30">
+    <row r="9" spans="1:31">
       <c r="A9" s="14">
         <v>38471</v>
       </c>
@@ -6872,24 +6902,27 @@
       <c r="F9" s="36">
         <v>1156.8499999999999</v>
       </c>
-      <c r="P9" s="29">
-        <f t="shared" si="0"/>
+      <c r="P9" s="14">
+        <v>38471</v>
+      </c>
+      <c r="Q9" s="29">
+        <f>LN(D9)-LN(D8)</f>
         <v>-8.3418198292246615E-3</v>
       </c>
-      <c r="Q9" s="29">
-        <f t="shared" ref="Q9:Q72" si="3">LN(D8)-LN(D7)</f>
+      <c r="R9" s="29">
+        <f>LN(D8)-LN(D7)</f>
         <v>1.2205604076797272E-2</v>
       </c>
-      <c r="S9" s="36">
-        <f t="shared" si="1"/>
+      <c r="T9" s="36">
+        <f>LN(E9)-LN(E8)</f>
         <v>0.1862085123047561</v>
       </c>
-      <c r="T9" s="36">
-        <f t="shared" si="2"/>
+      <c r="U9" s="36">
+        <f>LN(F9)-LN(F8)</f>
         <v>-2.031351934767045E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:30">
+    <row r="10" spans="1:31">
       <c r="A10" s="14">
         <v>38503</v>
       </c>
@@ -6908,24 +6941,27 @@
       <c r="F10" s="36">
         <v>1191.5</v>
       </c>
-      <c r="P10" s="29">
-        <f t="shared" si="0"/>
+      <c r="P10" s="14">
+        <v>38503</v>
+      </c>
+      <c r="Q10" s="29">
+        <f>LN(D10)-LN(D9)</f>
         <v>-2.6206099534968885E-2</v>
       </c>
-      <c r="Q10" s="29">
-        <f t="shared" si="3"/>
+      <c r="R10" s="29">
+        <f>LN(D9)-LN(D8)</f>
         <v>-8.3418198292246615E-3</v>
       </c>
-      <c r="S10" s="36">
-        <f t="shared" si="1"/>
+      <c r="T10" s="36">
+        <f>LN(E10)-LN(E9)</f>
         <v>-6.0449362578363863E-2</v>
       </c>
-      <c r="T10" s="36">
-        <f t="shared" si="2"/>
+      <c r="U10" s="36">
+        <f>LN(F10)-LN(F9)</f>
         <v>2.9512223385106395E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:30">
+    <row r="11" spans="1:31">
       <c r="A11" s="14">
         <v>38533</v>
       </c>
@@ -6944,24 +6980,27 @@
       <c r="F11" s="36">
         <v>1191.33</v>
       </c>
-      <c r="P11" s="29">
-        <f t="shared" si="0"/>
+      <c r="P11" s="14">
+        <v>38533</v>
+      </c>
+      <c r="Q11" s="29">
+        <f>LN(D11)-LN(D10)</f>
         <v>2.1183856170408077E-2</v>
       </c>
-      <c r="Q11" s="29">
-        <f t="shared" si="3"/>
+      <c r="R11" s="29">
+        <f>LN(D10)-LN(D9)</f>
         <v>-2.6206099534968885E-2</v>
       </c>
-      <c r="S11" s="36">
-        <f t="shared" si="1"/>
+      <c r="T11" s="36">
+        <f>LN(E11)-LN(E10)</f>
         <v>-0.12942577349298967</v>
       </c>
-      <c r="T11" s="36">
-        <f t="shared" si="2"/>
+      <c r="U11" s="36">
+        <f>LN(F11)-LN(F10)</f>
         <v>-1.4268747689882844E-4</v>
       </c>
     </row>
-    <row r="12" spans="1:30">
+    <row r="12" spans="1:31">
       <c r="A12" s="14">
         <v>38562</v>
       </c>
@@ -6980,24 +7019,27 @@
       <c r="F12" s="36">
         <v>1234.18</v>
       </c>
-      <c r="P12" s="29">
-        <f t="shared" si="0"/>
+      <c r="P12" s="14">
+        <v>38562</v>
+      </c>
+      <c r="Q12" s="29">
+        <f>LN(D12)-LN(D11)</f>
         <v>-4.5051931516736587E-2</v>
       </c>
-      <c r="Q12" s="29">
-        <f t="shared" si="3"/>
+      <c r="R12" s="29">
+        <f>LN(D11)-LN(D10)</f>
         <v>2.1183856170408077E-2</v>
       </c>
-      <c r="S12" s="36">
-        <f t="shared" si="1"/>
+      <c r="T12" s="36">
+        <f>LN(E12)-LN(E11)</f>
         <v>5.283209287569457E-2</v>
       </c>
-      <c r="T12" s="36">
-        <f t="shared" si="2"/>
+      <c r="U12" s="36">
+        <f>LN(F12)-LN(F11)</f>
         <v>3.5336451864729668E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:30">
+    <row r="13" spans="1:31">
       <c r="A13" s="14">
         <v>38595</v>
       </c>
@@ -7016,24 +7058,27 @@
       <c r="F13" s="36">
         <v>1220.33</v>
       </c>
-      <c r="P13" s="29">
-        <f t="shared" si="0"/>
+      <c r="P13" s="14">
+        <v>38595</v>
+      </c>
+      <c r="Q13" s="29">
+        <f>LN(D13)-LN(D12)</f>
         <v>-2.0818875762547151E-2</v>
       </c>
-      <c r="Q13" s="29">
-        <f t="shared" si="3"/>
+      <c r="R13" s="29">
+        <f>LN(D12)-LN(D11)</f>
         <v>-4.5051931516736587E-2</v>
       </c>
-      <c r="S13" s="36">
-        <f t="shared" si="1"/>
+      <c r="T13" s="36">
+        <f>LN(E13)-LN(E12)</f>
         <v>-4.8883977200130713E-2</v>
       </c>
-      <c r="T13" s="36">
-        <f t="shared" si="2"/>
+      <c r="U13" s="36">
+        <f>LN(F13)-LN(F12)</f>
         <v>-1.128546797235952E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:30">
+    <row r="14" spans="1:31">
       <c r="A14" s="14">
         <v>38625</v>
       </c>
@@ -7052,24 +7097,27 @@
       <c r="F14" s="36">
         <v>1228.81</v>
       </c>
-      <c r="P14" s="29">
-        <f t="shared" si="0"/>
+      <c r="P14" s="14">
+        <v>38625</v>
+      </c>
+      <c r="Q14" s="29">
+        <f>LN(D14)-LN(D13)</f>
         <v>6.5670324704001359E-2</v>
       </c>
-      <c r="Q14" s="29">
-        <f t="shared" si="3"/>
+      <c r="R14" s="29">
+        <f>LN(D13)-LN(D12)</f>
         <v>-2.0818875762547151E-2</v>
       </c>
-      <c r="S14" s="36">
-        <f t="shared" si="1"/>
+      <c r="T14" s="36">
+        <f>LN(E14)-LN(E13)</f>
         <v>-9.0472768659746183E-3</v>
       </c>
-      <c r="T14" s="36">
+      <c r="U14" s="36">
         <f>LN(F14)-LN(F13)</f>
         <v>6.9249074268586952E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:30">
+    <row r="15" spans="1:31">
       <c r="A15" s="14">
         <v>38656</v>
       </c>
@@ -7088,24 +7136,27 @@
       <c r="F15" s="36">
         <v>1207.01</v>
       </c>
-      <c r="P15" s="29">
-        <f t="shared" si="0"/>
+      <c r="P15" s="14">
+        <v>38656</v>
+      </c>
+      <c r="Q15" s="29">
+        <f>LN(D15)-LN(D14)</f>
         <v>6.0111900121555095E-2</v>
       </c>
-      <c r="Q15" s="29">
-        <f t="shared" si="3"/>
+      <c r="R15" s="29">
+        <f>LN(D14)-LN(D13)</f>
         <v>6.5670324704001359E-2</v>
       </c>
-      <c r="S15" s="36">
-        <f t="shared" si="1"/>
+      <c r="T15" s="36">
+        <f>LN(E15)-LN(E14)</f>
         <v>0.19005452629837227</v>
       </c>
-      <c r="T15" s="36">
-        <f t="shared" si="2"/>
+      <c r="U15" s="36">
+        <f>LN(F15)-LN(F14)</f>
         <v>-1.7899994313773426E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:30">
+    <row r="16" spans="1:31">
       <c r="A16" s="14">
         <v>38686</v>
       </c>
@@ -7124,24 +7175,27 @@
       <c r="F16" s="36">
         <v>1249.48</v>
       </c>
-      <c r="P16" s="29">
-        <f t="shared" si="0"/>
+      <c r="P16" s="14">
+        <v>38686</v>
+      </c>
+      <c r="Q16" s="29">
+        <f>LN(D16)-LN(D15)</f>
         <v>-2.3358287165677893E-2</v>
       </c>
-      <c r="Q16" s="29">
-        <f t="shared" si="3"/>
+      <c r="R16" s="29">
+        <f>LN(D15)-LN(D14)</f>
         <v>6.0111900121555095E-2</v>
       </c>
-      <c r="S16" s="36">
-        <f t="shared" si="1"/>
+      <c r="T16" s="36">
+        <f>LN(E16)-LN(E15)</f>
         <v>-0.11012105929306037</v>
       </c>
-      <c r="T16" s="36">
-        <f t="shared" si="2"/>
+      <c r="U16" s="36">
+        <f>LN(F16)-LN(F15)</f>
         <v>3.4581237676988508E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:30">
+    <row r="17" spans="1:31">
       <c r="A17" s="14">
         <v>38716</v>
       </c>
@@ -7160,37 +7214,40 @@
       <c r="F17" s="36">
         <v>1248.29</v>
       </c>
-      <c r="P17" s="29">
-        <f t="shared" si="0"/>
+      <c r="P17" s="14">
+        <v>38716</v>
+      </c>
+      <c r="Q17" s="29">
+        <f>LN(D17)-LN(D16)</f>
         <v>-1.6314147810291502E-2</v>
       </c>
-      <c r="Q17" s="29">
-        <f t="shared" si="3"/>
+      <c r="R17" s="29">
+        <f>LN(D16)-LN(D15)</f>
         <v>-2.3358287165677893E-2</v>
       </c>
-      <c r="S17" s="36">
-        <f t="shared" si="1"/>
+      <c r="T17" s="36">
+        <f>LN(E17)-LN(E16)</f>
         <v>-0.13841256478361774</v>
       </c>
-      <c r="T17" s="36">
-        <f t="shared" si="2"/>
+      <c r="U17" s="36">
+        <f>LN(F17)-LN(F16)</f>
         <v>-9.5285001424105786E-4</v>
       </c>
     </row>
-    <row r="18" spans="1:30" ht="15.75" thickBot="1">
-      <c r="A18" s="42">
+    <row r="18" spans="1:31" ht="14.25" thickBot="1">
+      <c r="A18" s="41">
         <v>38748</v>
       </c>
-      <c r="B18" s="43">
+      <c r="B18" s="42">
         <v>4573083.343410749</v>
       </c>
-      <c r="C18" s="44">
+      <c r="C18" s="43">
         <v>0.25180000000000002</v>
       </c>
-      <c r="D18" s="43">
+      <c r="D18" s="42">
         <v>454712.71425266034</v>
       </c>
-      <c r="E18" s="44">
+      <c r="E18" s="43">
         <v>0.35599999999999998</v>
       </c>
       <c r="F18" s="31">
@@ -7205,24 +7262,26 @@
       <c r="M18" s="31"/>
       <c r="N18" s="31"/>
       <c r="O18" s="31"/>
-      <c r="P18" s="30">
-        <f t="shared" si="0"/>
+      <c r="P18" s="41">
+        <v>38748</v>
+      </c>
+      <c r="Q18" s="30">
+        <f>LN(D18)-LN(D17)</f>
         <v>0.10844254955650889</v>
       </c>
-      <c r="Q18" s="30">
-        <f t="shared" si="3"/>
+      <c r="R18" s="30">
+        <f>LN(D17)-LN(D16)</f>
         <v>-1.6314147810291502E-2</v>
       </c>
-      <c r="R18" s="31"/>
-      <c r="S18" s="31">
-        <f t="shared" si="1"/>
+      <c r="S18" s="31"/>
+      <c r="T18" s="31">
+        <f>LN(E18)-LN(E17)</f>
         <v>6.9494602469329481E-2</v>
       </c>
-      <c r="T18" s="31">
-        <f t="shared" si="2"/>
+      <c r="U18" s="31">
+        <f>LN(F18)-LN(F17)</f>
         <v>2.5147961230517879E-2</v>
       </c>
-      <c r="U18" s="6"/>
       <c r="V18" s="6"/>
       <c r="W18" s="6"/>
       <c r="X18" s="6"/>
@@ -7232,8 +7291,9 @@
       <c r="AB18" s="6"/>
       <c r="AC18" s="6"/>
       <c r="AD18" s="6"/>
-    </row>
-    <row r="19" spans="1:30">
+      <c r="AE18" s="6"/>
+    </row>
+    <row r="19" spans="1:31" ht="15">
       <c r="A19" s="14">
         <v>38776</v>
       </c>
@@ -7253,7 +7313,7 @@
         <v>1280.6600000000001</v>
       </c>
       <c r="G19" s="36">
-        <f>$N$20+$M$20*Q19+$L$20*R19+$K$20*S19+$J$20*T19</f>
+        <f>$N$20+$M$20*R19+$L$20*S19+$K$20*T19+$J$20*U19</f>
         <v>-3.0446171942126465E-2</v>
       </c>
       <c r="I19" s="39" t="s">
@@ -7274,28 +7334,31 @@
       <c r="N19" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="P19" s="29">
-        <f t="shared" si="0"/>
+      <c r="P19" s="14">
+        <v>38776</v>
+      </c>
+      <c r="Q19" s="29">
+        <f>LN(D19)-LN(D18)</f>
         <v>-4.2951037806883363E-2</v>
       </c>
-      <c r="Q19" s="29">
-        <f t="shared" si="3"/>
+      <c r="R19" s="29">
+        <f>LN(D18)-LN(D17)</f>
         <v>0.10844254955650889</v>
       </c>
-      <c r="R19" s="29">
+      <c r="S19" s="29">
         <f>LN(D7)-LN(D6)</f>
         <v>-3.5996475428497376E-2</v>
       </c>
-      <c r="S19" s="36">
-        <f t="shared" si="1"/>
+      <c r="T19" s="36">
+        <f>LN(E19)-LN(E18)</f>
         <v>1.3393057336438252E-2</v>
       </c>
-      <c r="T19" s="36">
-        <f t="shared" si="2"/>
+      <c r="U19" s="36">
+        <f>LN(F19)-LN(F18)</f>
         <v>4.5299406415200139E-4</v>
       </c>
     </row>
-    <row r="20" spans="1:30">
+    <row r="20" spans="1:31">
       <c r="A20" s="14">
         <v>38807</v>
       </c>
@@ -7315,14 +7378,14 @@
         <v>1294.8699999999999</v>
       </c>
       <c r="G20" s="36">
-        <f t="shared" ref="G20:G83" si="4">$N$20+$M$20*Q20+$L$20*R20+$K$20*S20+$J$20*T20</f>
+        <f t="shared" ref="G20:G83" si="0">$N$20+$M$20*R20+$L$20*S20+$K$20*T20+$J$20*U20</f>
         <v>-1.0474690270415038E-2</v>
       </c>
       <c r="I20" s="38" t="s">
         <v>21</v>
       </c>
       <c r="J20" s="36">
-        <f t="array" ref="J20:N24">LINEST(P19:P125,Q19:T125,TRUE,TRUE)</f>
+        <f t="array" ref="J20:N24">LINEST(Q19:Q125,R19:U125,TRUE,TRUE)</f>
         <v>3.4452338628854211E-2</v>
       </c>
       <c r="K20" s="36">
@@ -7337,28 +7400,31 @@
       <c r="N20" s="36">
         <v>2.088188946549266E-3</v>
       </c>
-      <c r="P20" s="29">
-        <f t="shared" si="0"/>
+      <c r="P20" s="14">
+        <v>38807</v>
+      </c>
+      <c r="Q20" s="29">
+        <f>LN(D20)-LN(D19)</f>
         <v>2.0525776672378981E-2</v>
       </c>
-      <c r="Q20" s="29">
-        <f t="shared" si="3"/>
+      <c r="R20" s="29">
+        <f>LN(D19)-LN(D18)</f>
         <v>-4.2951037806883363E-2</v>
       </c>
-      <c r="R20" s="29">
-        <f t="shared" ref="R20:R83" si="5">LN(D8)-LN(D7)</f>
+      <c r="S20" s="29">
+        <f>LN(D8)-LN(D7)</f>
         <v>1.2205604076797272E-2</v>
       </c>
-      <c r="S20" s="36">
-        <f t="shared" si="1"/>
+      <c r="T20" s="36">
+        <f>LN(E20)-LN(E19)</f>
         <v>-8.5299478882618684E-2</v>
       </c>
-      <c r="T20" s="36">
-        <f t="shared" si="2"/>
+      <c r="U20" s="36">
+        <f>LN(F20)-LN(F19)</f>
         <v>1.1034733969458976E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:30">
+    <row r="21" spans="1:31">
       <c r="A21" s="14">
         <v>38835</v>
       </c>
@@ -7378,7 +7444,7 @@
         <v>1310.6099999999999</v>
       </c>
       <c r="G21" s="36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>1.896908778883722E-2</v>
       </c>
       <c r="I21" s="36" t="s">
@@ -7399,28 +7465,31 @@
       <c r="N21" s="36">
         <v>8.6579917594952153E-3</v>
       </c>
-      <c r="P21" s="29">
-        <f t="shared" si="0"/>
+      <c r="P21" s="14">
+        <v>38835</v>
+      </c>
+      <c r="Q21" s="29">
+        <f>LN(D21)-LN(D20)</f>
         <v>1.2678837349767491E-2</v>
       </c>
-      <c r="Q21" s="29">
-        <f t="shared" si="3"/>
+      <c r="R21" s="29">
+        <f>LN(D20)-LN(D19)</f>
         <v>2.0525776672378981E-2</v>
       </c>
-      <c r="R21" s="29">
-        <f t="shared" si="5"/>
+      <c r="S21" s="29">
+        <f>LN(D9)-LN(D8)</f>
         <v>-8.3418198292246615E-3</v>
       </c>
-      <c r="S21" s="36">
-        <f t="shared" si="1"/>
+      <c r="T21" s="36">
+        <f>LN(E21)-LN(E20)</f>
         <v>7.4991545294552653E-2</v>
       </c>
-      <c r="T21" s="36">
-        <f t="shared" si="2"/>
+      <c r="U21" s="36">
+        <f>LN(F21)-LN(F20)</f>
         <v>1.2082373675144531E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:30">
+    <row r="22" spans="1:31">
       <c r="A22" s="14">
         <v>38868</v>
       </c>
@@ -7440,7 +7509,7 @@
         <v>1270.0899999999999</v>
       </c>
       <c r="G22" s="36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>2.8514901753809035E-2</v>
       </c>
       <c r="I22" s="38" t="s">
@@ -7461,28 +7530,31 @@
       <c r="N22" s="36" t="e">
         <v>#N/A</v>
       </c>
-      <c r="P22" s="29">
-        <f t="shared" si="0"/>
+      <c r="P22" s="14">
+        <v>38868</v>
+      </c>
+      <c r="Q22" s="29">
+        <f>LN(D22)-LN(D21)</f>
         <v>6.8827967541718493E-2</v>
       </c>
-      <c r="Q22" s="29">
-        <f t="shared" si="3"/>
+      <c r="R22" s="29">
+        <f>LN(D21)-LN(D20)</f>
         <v>1.2678837349767491E-2</v>
       </c>
-      <c r="R22" s="29">
-        <f t="shared" si="5"/>
+      <c r="S22" s="29">
+        <f>LN(D10)-LN(D9)</f>
         <v>-2.6206099534968885E-2</v>
       </c>
-      <c r="S22" s="36">
-        <f t="shared" si="1"/>
+      <c r="T22" s="36">
+        <f>LN(E22)-LN(E21)</f>
         <v>0.11619491817560457</v>
       </c>
-      <c r="T22" s="36">
-        <f t="shared" si="2"/>
+      <c r="U22" s="36">
+        <f>LN(F22)-LN(F21)</f>
         <v>-3.1404913585891592E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:30">
+    <row r="23" spans="1:31">
       <c r="A23" s="14">
         <v>38898</v>
       </c>
@@ -7502,7 +7574,7 @@
         <v>1270.2</v>
       </c>
       <c r="G23" s="36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>2.0174500819735486E-2</v>
       </c>
       <c r="I23" s="36" t="s">
@@ -7523,28 +7595,31 @@
       <c r="N23" s="36" t="e">
         <v>#N/A</v>
       </c>
-      <c r="P23" s="29">
-        <f t="shared" si="0"/>
+      <c r="P23" s="14">
+        <v>38898</v>
+      </c>
+      <c r="Q23" s="29">
+        <f>LN(D23)-LN(D22)</f>
         <v>3.091511438626604E-2</v>
       </c>
-      <c r="Q23" s="29">
-        <f t="shared" si="3"/>
+      <c r="R23" s="29">
+        <f>LN(D22)-LN(D21)</f>
         <v>6.8827967541718493E-2</v>
       </c>
-      <c r="R23" s="29">
-        <f t="shared" si="5"/>
+      <c r="S23" s="29">
+        <f>LN(D11)-LN(D10)</f>
         <v>2.1183856170408077E-2</v>
       </c>
-      <c r="S23" s="36">
-        <f t="shared" si="1"/>
+      <c r="T23" s="36">
+        <f>LN(E23)-LN(E22)</f>
         <v>9.8907428058474633E-2</v>
       </c>
-      <c r="T23" s="36">
-        <f t="shared" si="2"/>
+      <c r="U23" s="36">
+        <f>LN(F23)-LN(F22)</f>
         <v>8.6604285391089775E-5</v>
       </c>
     </row>
-    <row r="24" spans="1:30">
+    <row r="24" spans="1:31">
       <c r="A24" s="14">
         <v>38929</v>
       </c>
@@ -7564,7 +7639,7 @@
         <v>1276.6600000000001</v>
       </c>
       <c r="G24" s="36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>7.4695565941884767E-3</v>
       </c>
       <c r="I24" s="36" t="s">
@@ -7585,28 +7660,31 @@
       <c r="N24" s="36" t="e">
         <v>#N/A</v>
       </c>
-      <c r="P24" s="29">
-        <f t="shared" si="0"/>
+      <c r="P24" s="14">
+        <v>38929</v>
+      </c>
+      <c r="Q24" s="29">
+        <f>LN(D24)-LN(D23)</f>
         <v>-0.12578650839615513</v>
       </c>
-      <c r="Q24" s="29">
-        <f t="shared" si="3"/>
+      <c r="R24" s="29">
+        <f>LN(D23)-LN(D22)</f>
         <v>3.091511438626604E-2</v>
       </c>
-      <c r="R24" s="29">
-        <f t="shared" si="5"/>
+      <c r="S24" s="29">
+        <f>LN(D12)-LN(D11)</f>
         <v>-4.5051931516736587E-2</v>
       </c>
-      <c r="S24" s="36">
-        <f t="shared" si="1"/>
+      <c r="T24" s="36">
+        <f>LN(E24)-LN(E23)</f>
         <v>7.460791168757952E-2</v>
       </c>
-      <c r="T24" s="36">
-        <f t="shared" si="2"/>
+      <c r="U24" s="36">
+        <f>LN(F24)-LN(F23)</f>
         <v>5.0729241919587054E-3</v>
       </c>
     </row>
-    <row r="25" spans="1:30">
+    <row r="25" spans="1:31">
       <c r="A25" s="14">
         <v>38960</v>
       </c>
@@ -7626,7 +7704,7 @@
         <v>1303.82</v>
       </c>
       <c r="G25" s="36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>-4.4418421601229066E-2</v>
       </c>
       <c r="I25" s="36" t="s">
@@ -7652,28 +7730,31 @@
         <f>N20/N21</f>
         <v>0.24118629406861589</v>
       </c>
-      <c r="P25" s="29">
-        <f t="shared" si="0"/>
+      <c r="P25" s="14">
+        <v>38960</v>
+      </c>
+      <c r="Q25" s="29">
+        <f>LN(D25)-LN(D24)</f>
         <v>-5.5420970144970383E-2</v>
       </c>
-      <c r="Q25" s="29">
-        <f t="shared" si="3"/>
+      <c r="R25" s="29">
+        <f>LN(D24)-LN(D23)</f>
         <v>-0.12578650839615513</v>
       </c>
-      <c r="R25" s="29">
-        <f t="shared" si="5"/>
+      <c r="S25" s="29">
+        <f>LN(D13)-LN(D12)</f>
         <v>-2.0818875762547151E-2</v>
       </c>
-      <c r="S25" s="36">
-        <f t="shared" si="1"/>
+      <c r="T25" s="36">
+        <f>LN(E25)-LN(E24)</f>
         <v>-0.238402961951929</v>
       </c>
-      <c r="T25" s="36">
-        <f t="shared" si="2"/>
+      <c r="U25" s="36">
+        <f>LN(F25)-LN(F24)</f>
         <v>2.1051124587992298E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:30">
+    <row r="26" spans="1:31">
       <c r="A26" s="14">
         <v>38989</v>
       </c>
@@ -7693,31 +7774,34 @@
         <v>1335.85</v>
       </c>
       <c r="G26" s="36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>6.8147072699286555E-3</v>
       </c>
-      <c r="P26" s="29">
-        <f t="shared" si="0"/>
+      <c r="P26" s="14">
+        <v>38989</v>
+      </c>
+      <c r="Q26" s="29">
+        <f>LN(D26)-LN(D25)</f>
         <v>4.0922039067234905E-2</v>
       </c>
-      <c r="Q26" s="29">
-        <f t="shared" si="3"/>
+      <c r="R26" s="29">
+        <f>LN(D25)-LN(D24)</f>
         <v>-5.5420970144970383E-2</v>
       </c>
-      <c r="R26" s="29">
-        <f t="shared" si="5"/>
+      <c r="S26" s="29">
+        <f>LN(D14)-LN(D13)</f>
         <v>6.5670324704001359E-2</v>
       </c>
-      <c r="S26" s="36">
-        <f t="shared" si="1"/>
+      <c r="T26" s="36">
+        <f>LN(E26)-LN(E25)</f>
         <v>-8.115177328862655E-2</v>
       </c>
-      <c r="T26" s="36">
-        <f t="shared" si="2"/>
+      <c r="U26" s="36">
+        <f>LN(F26)-LN(F25)</f>
         <v>2.4269376195303671E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:30">
+    <row r="27" spans="1:31">
       <c r="A27" s="14">
         <v>39021</v>
       </c>
@@ -7737,31 +7821,34 @@
         <v>1377.94</v>
       </c>
       <c r="G27" s="36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>1.6041817812343522E-2</v>
       </c>
-      <c r="P27" s="29">
-        <f t="shared" si="0"/>
+      <c r="P27" s="14">
+        <v>39021</v>
+      </c>
+      <c r="Q27" s="29">
+        <f>LN(D27)-LN(D26)</f>
         <v>5.2394933064663363E-2</v>
       </c>
-      <c r="Q27" s="29">
-        <f t="shared" si="3"/>
+      <c r="R27" s="29">
+        <f>LN(D26)-LN(D25)</f>
         <v>4.0922039067234905E-2</v>
       </c>
-      <c r="R27" s="29">
-        <f t="shared" si="5"/>
+      <c r="S27" s="29">
+        <f>LN(D15)-LN(D14)</f>
         <v>6.0111900121555095E-2</v>
       </c>
-      <c r="S27" s="36">
-        <f t="shared" si="1"/>
+      <c r="T27" s="36">
+        <f>LN(E27)-LN(E26)</f>
         <v>3.1243666017853222E-2</v>
       </c>
-      <c r="T27" s="36">
-        <f t="shared" si="2"/>
+      <c r="U27" s="36">
+        <f>LN(F27)-LN(F26)</f>
         <v>3.1021836917226153E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:30">
+    <row r="28" spans="1:31">
       <c r="A28" s="14">
         <v>39051</v>
       </c>
@@ -7781,31 +7868,34 @@
         <v>1400.63</v>
       </c>
       <c r="G28" s="36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>-2.3214187510235663E-2</v>
       </c>
-      <c r="P28" s="29">
-        <f t="shared" si="0"/>
+      <c r="P28" s="14">
+        <v>39051</v>
+      </c>
+      <c r="Q28" s="29">
+        <f>LN(D28)-LN(D27)</f>
         <v>-1.9592551066285324E-2</v>
       </c>
-      <c r="Q28" s="29">
-        <f t="shared" si="3"/>
+      <c r="R28" s="29">
+        <f>LN(D27)-LN(D26)</f>
         <v>5.2394933064663363E-2</v>
       </c>
-      <c r="R28" s="29">
-        <f t="shared" si="5"/>
+      <c r="S28" s="29">
+        <f>LN(D16)-LN(D15)</f>
         <v>-2.3358287165677893E-2</v>
       </c>
-      <c r="S28" s="36">
-        <f t="shared" si="1"/>
+      <c r="T28" s="36">
+        <f>LN(E28)-LN(E27)</f>
         <v>-2.1196215338739055E-2</v>
       </c>
-      <c r="T28" s="36">
-        <f t="shared" si="2"/>
+      <c r="U28" s="36">
+        <f>LN(F28)-LN(F27)</f>
         <v>1.6332505122360175E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:30">
+    <row r="29" spans="1:31">
       <c r="A29" s="14">
         <v>39080</v>
       </c>
@@ -7825,31 +7915,34 @@
         <v>1418.3</v>
       </c>
       <c r="G29" s="36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>-4.2601751208898524E-2</v>
       </c>
-      <c r="P29" s="29">
-        <f t="shared" si="0"/>
+      <c r="P29" s="14">
+        <v>39080</v>
+      </c>
+      <c r="Q29" s="29">
+        <f>LN(D29)-LN(D28)</f>
         <v>-7.6659415522302154E-2</v>
       </c>
-      <c r="Q29" s="29">
-        <f t="shared" si="3"/>
+      <c r="R29" s="29">
+        <f>LN(D28)-LN(D27)</f>
         <v>-1.9592551066285324E-2</v>
       </c>
-      <c r="R29" s="29">
-        <f t="shared" si="5"/>
+      <c r="S29" s="29">
+        <f>LN(D17)-LN(D16)</f>
         <v>-1.6314147810291502E-2</v>
       </c>
-      <c r="S29" s="36">
-        <f t="shared" si="1"/>
+      <c r="T29" s="36">
+        <f>LN(E29)-LN(E28)</f>
         <v>-0.14679892617520762</v>
       </c>
-      <c r="T29" s="36">
-        <f t="shared" si="2"/>
+      <c r="U29" s="36">
+        <f>LN(F29)-LN(F28)</f>
         <v>1.2536835916846734E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:30">
+    <row r="30" spans="1:31">
       <c r="A30" s="14">
         <v>39113</v>
       </c>
@@ -7869,31 +7962,34 @@
         <v>1438.24</v>
       </c>
       <c r="G30" s="36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>7.1214315601805953E-2</v>
       </c>
-      <c r="P30" s="29">
-        <f t="shared" si="0"/>
+      <c r="P30" s="14">
+        <v>39113</v>
+      </c>
+      <c r="Q30" s="29">
+        <f>LN(D30)-LN(D29)</f>
         <v>5.9091917509990211E-2</v>
       </c>
-      <c r="Q30" s="29">
-        <f t="shared" si="3"/>
+      <c r="R30" s="29">
+        <f>LN(D29)-LN(D28)</f>
         <v>-7.6659415522302154E-2</v>
       </c>
-      <c r="R30" s="29">
-        <f t="shared" si="5"/>
+      <c r="S30" s="29">
+        <f>LN(D18)-LN(D17)</f>
         <v>0.10844254955650889</v>
       </c>
-      <c r="S30" s="36">
-        <f t="shared" si="1"/>
+      <c r="T30" s="36">
+        <f>LN(E30)-LN(E29)</f>
         <v>7.4556810496775316E-2</v>
       </c>
-      <c r="T30" s="36">
-        <f t="shared" si="2"/>
+      <c r="U30" s="36">
+        <f>LN(F30)-LN(F29)</f>
         <v>1.3961172524527221E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:30">
+    <row r="31" spans="1:31">
       <c r="A31" s="14">
         <v>39141</v>
       </c>
@@ -7913,31 +8009,34 @@
         <v>1406.82</v>
       </c>
       <c r="G31" s="36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>-3.7939292390360042E-3</v>
       </c>
-      <c r="P31" s="29">
-        <f t="shared" si="0"/>
+      <c r="P31" s="14">
+        <v>39141</v>
+      </c>
+      <c r="Q31" s="29">
+        <f>LN(D31)-LN(D30)</f>
         <v>8.6524810483776804E-2</v>
       </c>
-      <c r="Q31" s="29">
-        <f t="shared" si="3"/>
+      <c r="R31" s="29">
+        <f>LN(D30)-LN(D29)</f>
         <v>5.9091917509990211E-2</v>
       </c>
-      <c r="R31" s="29">
-        <f t="shared" si="5"/>
+      <c r="S31" s="29">
+        <f>LN(D19)-LN(D18)</f>
         <v>-4.2951037806883363E-2</v>
       </c>
-      <c r="S31" s="36">
-        <f t="shared" si="1"/>
+      <c r="T31" s="36">
+        <f>LN(E31)-LN(E30)</f>
         <v>6.3924270504007508E-2</v>
       </c>
-      <c r="T31" s="36">
-        <f t="shared" si="2"/>
+      <c r="U31" s="36">
+        <f>LN(F31)-LN(F30)</f>
         <v>-2.2088305664389907E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:30">
+    <row r="32" spans="1:31">
       <c r="A32" s="14">
         <v>39171</v>
       </c>
@@ -7957,31 +8056,34 @@
         <v>1420.86</v>
       </c>
       <c r="G32" s="36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>-3.2862844735989259E-4</v>
       </c>
-      <c r="P32" s="29">
-        <f t="shared" si="0"/>
+      <c r="P32" s="14">
+        <v>39171</v>
+      </c>
+      <c r="Q32" s="29">
+        <f>LN(D32)-LN(D31)</f>
         <v>3.4844907990615681E-2</v>
       </c>
-      <c r="Q32" s="29">
-        <f t="shared" si="3"/>
+      <c r="R32" s="29">
+        <f>LN(D31)-LN(D30)</f>
         <v>8.6524810483776804E-2</v>
       </c>
-      <c r="R32" s="29">
-        <f t="shared" si="5"/>
+      <c r="S32" s="29">
+        <f>LN(D20)-LN(D19)</f>
         <v>2.0525776672378981E-2</v>
       </c>
-      <c r="S32" s="36">
-        <f t="shared" si="1"/>
+      <c r="T32" s="36">
+        <f>LN(E32)-LN(E31)</f>
         <v>4.8351182599608133E-2</v>
       </c>
-      <c r="T32" s="36">
-        <f t="shared" si="2"/>
+      <c r="U32" s="36">
+        <f>LN(F32)-LN(F31)</f>
         <v>9.9304839152862812E-3</v>
       </c>
     </row>
-    <row r="33" spans="1:20">
+    <row r="33" spans="1:21">
       <c r="A33" s="14">
         <v>39202</v>
       </c>
@@ -8001,31 +8103,34 @@
         <v>1482.37</v>
       </c>
       <c r="G33" s="36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>-3.6291082441449241E-2</v>
       </c>
-      <c r="P33" s="29">
-        <f t="shared" si="0"/>
+      <c r="P33" s="14">
+        <v>39202</v>
+      </c>
+      <c r="Q33" s="29">
+        <f>LN(D33)-LN(D32)</f>
         <v>-2.3249809423864676E-2</v>
       </c>
-      <c r="Q33" s="29">
-        <f t="shared" si="3"/>
+      <c r="R33" s="29">
+        <f>LN(D32)-LN(D31)</f>
         <v>3.4844907990615681E-2</v>
       </c>
-      <c r="R33" s="29">
-        <f t="shared" si="5"/>
+      <c r="S33" s="29">
+        <f>LN(D21)-LN(D20)</f>
         <v>1.2678837349767491E-2</v>
       </c>
-      <c r="S33" s="36">
-        <f t="shared" si="1"/>
+      <c r="T33" s="36">
+        <f>LN(E33)-LN(E32)</f>
         <v>-0.10584849907607419</v>
       </c>
-      <c r="T33" s="36">
-        <f t="shared" si="2"/>
+      <c r="U33" s="36">
+        <f>LN(F33)-LN(F32)</f>
         <v>4.2379836237604884E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:20">
+    <row r="34" spans="1:21">
       <c r="A34" s="14">
         <v>39233</v>
       </c>
@@ -8045,31 +8150,34 @@
         <v>1530.62</v>
       </c>
       <c r="G34" s="36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>4.3570286998554975E-2</v>
       </c>
-      <c r="P34" s="29">
-        <f t="shared" si="0"/>
+      <c r="P34" s="14">
+        <v>39233</v>
+      </c>
+      <c r="Q34" s="29">
+        <f>LN(D34)-LN(D33)</f>
         <v>6.6622495895623857E-2</v>
       </c>
-      <c r="Q34" s="29">
-        <f t="shared" si="3"/>
+      <c r="R34" s="29">
+        <f>LN(D33)-LN(D32)</f>
         <v>-2.3249809423864676E-2</v>
       </c>
-      <c r="R34" s="29">
-        <f t="shared" si="5"/>
+      <c r="S34" s="29">
+        <f>LN(D22)-LN(D21)</f>
         <v>6.8827967541718493E-2</v>
       </c>
-      <c r="S34" s="36">
-        <f t="shared" si="1"/>
+      <c r="T34" s="36">
+        <f>LN(E34)-LN(E33)</f>
         <v>5.8360998695117683E-2</v>
       </c>
-      <c r="T34" s="36">
-        <f t="shared" si="2"/>
+      <c r="U34" s="36">
+        <f>LN(F34)-LN(F33)</f>
         <v>3.2030723748061263E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:20">
+    <row r="35" spans="1:21">
       <c r="A35" s="14">
         <v>39262</v>
       </c>
@@ -8089,31 +8197,34 @@
         <v>1503.35</v>
       </c>
       <c r="G35" s="36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>-3.0326514854722497E-2</v>
       </c>
-      <c r="P35" s="29">
-        <f t="shared" si="0"/>
+      <c r="P35" s="14">
+        <v>39262</v>
+      </c>
+      <c r="Q35" s="29">
+        <f>LN(D35)-LN(D34)</f>
         <v>1.4126406766445498E-2</v>
       </c>
-      <c r="Q35" s="29">
-        <f t="shared" si="3"/>
+      <c r="R35" s="29">
+        <f>LN(D34)-LN(D33)</f>
         <v>6.6622495895623857E-2</v>
       </c>
-      <c r="R35" s="29">
-        <f t="shared" si="5"/>
+      <c r="S35" s="29">
+        <f>LN(D23)-LN(D22)</f>
         <v>3.091511438626604E-2</v>
       </c>
-      <c r="S35" s="36">
-        <f t="shared" si="1"/>
+      <c r="T35" s="36">
+        <f>LN(E35)-LN(E34)</f>
         <v>-6.7247222329792189E-2</v>
       </c>
-      <c r="T35" s="36">
-        <f t="shared" si="2"/>
+      <c r="U35" s="36">
+        <f>LN(F35)-LN(F34)</f>
         <v>-1.7976930819990855E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:20">
+    <row r="36" spans="1:21">
       <c r="A36" s="14">
         <v>39294</v>
       </c>
@@ -8133,31 +8244,34 @@
         <v>1455.27</v>
       </c>
       <c r="G36" s="36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>2.6293719830079644E-2</v>
       </c>
-      <c r="P36" s="29">
-        <f t="shared" si="0"/>
+      <c r="P36" s="14">
+        <v>39294</v>
+      </c>
+      <c r="Q36" s="29">
+        <f>LN(D36)-LN(D35)</f>
         <v>1.1072084621552847E-2</v>
       </c>
-      <c r="Q36" s="29">
-        <f t="shared" si="3"/>
+      <c r="R36" s="29">
+        <f>LN(D35)-LN(D34)</f>
         <v>1.4126406766445498E-2</v>
       </c>
-      <c r="R36" s="29">
-        <f t="shared" si="5"/>
+      <c r="S36" s="29">
+        <f>LN(D24)-LN(D23)</f>
         <v>-0.12578650839615513</v>
       </c>
-      <c r="S36" s="36">
-        <f t="shared" si="1"/>
+      <c r="T36" s="36">
+        <f>LN(E36)-LN(E35)</f>
         <v>0.18237285331349706</v>
       </c>
-      <c r="T36" s="36">
-        <f t="shared" si="2"/>
+      <c r="U36" s="36">
+        <f>LN(F36)-LN(F35)</f>
         <v>-3.2504500841186612E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:20">
+    <row r="37" spans="1:21">
       <c r="A37" s="14">
         <v>39325</v>
       </c>
@@ -8177,31 +8291,34 @@
         <v>1473.99</v>
       </c>
       <c r="G37" s="36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>0.12650332484167506</v>
       </c>
-      <c r="P37" s="29">
-        <f t="shared" si="0"/>
+      <c r="P37" s="14">
+        <v>39325</v>
+      </c>
+      <c r="Q37" s="29">
+        <f>LN(D37)-LN(D36)</f>
         <v>0.1627992338708566</v>
       </c>
-      <c r="Q37" s="29">
-        <f t="shared" si="3"/>
+      <c r="R37" s="29">
+        <f>LN(D36)-LN(D35)</f>
         <v>1.1072084621552847E-2</v>
       </c>
-      <c r="R37" s="29">
-        <f t="shared" si="5"/>
+      <c r="S37" s="29">
+        <f>LN(D25)-LN(D24)</f>
         <v>-5.5420970144970383E-2</v>
       </c>
-      <c r="S37" s="36">
-        <f t="shared" si="1"/>
+      <c r="T37" s="36">
+        <f>LN(E37)-LN(E36)</f>
         <v>0.44016426700459532</v>
       </c>
-      <c r="T37" s="36">
-        <f t="shared" si="2"/>
+      <c r="U37" s="36">
+        <f>LN(F37)-LN(F36)</f>
         <v>1.2781559065278891E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:20">
+    <row r="38" spans="1:21">
       <c r="A38" s="14">
         <v>39353</v>
       </c>
@@ -8221,31 +8338,34 @@
         <v>1526.75</v>
       </c>
       <c r="G38" s="36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>-0.15268697663322917</v>
       </c>
-      <c r="P38" s="29">
-        <f t="shared" si="0"/>
+      <c r="P38" s="14">
+        <v>39353</v>
+      </c>
+      <c r="Q38" s="29">
+        <f>LN(D38)-LN(D37)</f>
         <v>-0.33170903548371555</v>
       </c>
-      <c r="Q38" s="29">
-        <f t="shared" si="3"/>
+      <c r="R38" s="29">
+        <f>LN(D37)-LN(D36)</f>
         <v>0.1627992338708566</v>
       </c>
-      <c r="R38" s="29">
-        <f t="shared" si="5"/>
+      <c r="S38" s="29">
+        <f>LN(D26)-LN(D25)</f>
         <v>4.0922039067234905E-2</v>
       </c>
-      <c r="S38" s="36">
-        <f t="shared" si="1"/>
+      <c r="T38" s="36">
+        <f>LN(E38)-LN(E37)</f>
         <v>-0.38624554287602264</v>
       </c>
-      <c r="T38" s="36">
-        <f t="shared" si="2"/>
+      <c r="U38" s="36">
+        <f>LN(F38)-LN(F37)</f>
         <v>3.5168283637490916E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:20">
+    <row r="39" spans="1:21">
       <c r="A39" s="14">
         <v>39386</v>
       </c>
@@ -8265,31 +8385,34 @@
         <v>1549.38</v>
       </c>
       <c r="G39" s="36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>0.1212271781068983</v>
       </c>
-      <c r="P39" s="29">
-        <f t="shared" si="0"/>
+      <c r="P39" s="14">
+        <v>39386</v>
+      </c>
+      <c r="Q39" s="29">
+        <f>LN(D39)-LN(D38)</f>
         <v>6.6896512090828253E-2</v>
       </c>
-      <c r="Q39" s="29">
-        <f t="shared" si="3"/>
+      <c r="R39" s="29">
+        <f>LN(D38)-LN(D37)</f>
         <v>-0.33170903548371555</v>
       </c>
-      <c r="R39" s="29">
-        <f t="shared" si="5"/>
+      <c r="S39" s="29">
+        <f>LN(D27)-LN(D26)</f>
         <v>5.2394933064663363E-2</v>
       </c>
-      <c r="S39" s="36">
-        <f t="shared" si="1"/>
+      <c r="T39" s="36">
+        <f>LN(E39)-LN(E38)</f>
         <v>6.0810438301750591E-2</v>
       </c>
-      <c r="T39" s="36">
-        <f t="shared" si="2"/>
+      <c r="U39" s="36">
+        <f>LN(F39)-LN(F38)</f>
         <v>1.4713557788708975E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:20">
+    <row r="40" spans="1:21">
       <c r="A40" s="14">
         <v>39416</v>
       </c>
@@ -8309,31 +8432,34 @@
         <v>1481.14</v>
       </c>
       <c r="G40" s="36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>7.1680426035061001E-2</v>
       </c>
-      <c r="P40" s="29">
-        <f t="shared" si="0"/>
+      <c r="P40" s="14">
+        <v>39416</v>
+      </c>
+      <c r="Q40" s="29">
+        <f>LN(D40)-LN(D39)</f>
         <v>0.11265946587768916</v>
       </c>
-      <c r="Q40" s="29">
-        <f t="shared" si="3"/>
+      <c r="R40" s="29">
+        <f>LN(D39)-LN(D38)</f>
         <v>6.6896512090828253E-2</v>
       </c>
-      <c r="R40" s="29">
-        <f t="shared" si="5"/>
+      <c r="S40" s="29">
+        <f>LN(D28)-LN(D27)</f>
         <v>-1.9592551066285324E-2</v>
       </c>
-      <c r="S40" s="36">
-        <f t="shared" si="1"/>
+      <c r="T40" s="36">
+        <f>LN(E40)-LN(E39)</f>
         <v>0.2940645878499516</v>
       </c>
-      <c r="T40" s="36">
-        <f t="shared" si="2"/>
+      <c r="U40" s="36">
+        <f>LN(F40)-LN(F39)</f>
         <v>-4.5042789369416525E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:20">
+    <row r="41" spans="1:21">
       <c r="A41" s="14">
         <v>39447</v>
       </c>
@@ -8353,31 +8479,34 @@
         <v>1468.36</v>
       </c>
       <c r="G41" s="36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>-7.324896275015387E-2</v>
       </c>
-      <c r="P41" s="29">
-        <f t="shared" si="0"/>
+      <c r="P41" s="14">
+        <v>39447</v>
+      </c>
+      <c r="Q41" s="29">
+        <f>LN(D41)-LN(D40)</f>
         <v>-0.15161796637180913</v>
       </c>
-      <c r="Q41" s="29">
-        <f t="shared" si="3"/>
+      <c r="R41" s="29">
+        <f>LN(D40)-LN(D39)</f>
         <v>0.11265946587768916</v>
       </c>
-      <c r="R41" s="29">
-        <f t="shared" si="5"/>
+      <c r="S41" s="29">
+        <f>LN(D29)-LN(D28)</f>
         <v>-7.6659415522302154E-2</v>
       </c>
-      <c r="S41" s="36">
-        <f t="shared" si="1"/>
+      <c r="T41" s="36">
+        <f>LN(E41)-LN(E40)</f>
         <v>-8.7755286267008792E-2</v>
       </c>
-      <c r="T41" s="36">
-        <f t="shared" si="2"/>
+      <c r="U41" s="36">
+        <f>LN(F41)-LN(F40)</f>
         <v>-8.6659298048017419E-3</v>
       </c>
     </row>
-    <row r="42" spans="1:20">
+    <row r="42" spans="1:21">
       <c r="A42" s="14">
         <v>39478</v>
       </c>
@@ -8397,31 +8526,34 @@
         <v>1378.55</v>
       </c>
       <c r="G42" s="36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>9.3799686693380277E-2</v>
       </c>
-      <c r="P42" s="29">
-        <f t="shared" si="0"/>
+      <c r="P42" s="14">
+        <v>39478</v>
+      </c>
+      <c r="Q42" s="29">
+        <f>LN(D42)-LN(D41)</f>
         <v>0.24426503231156182</v>
       </c>
-      <c r="Q42" s="29">
-        <f t="shared" si="3"/>
+      <c r="R42" s="29">
+        <f>LN(D41)-LN(D40)</f>
         <v>-0.15161796637180913</v>
       </c>
-      <c r="R42" s="29">
-        <f t="shared" si="5"/>
+      <c r="S42" s="29">
+        <f>LN(D30)-LN(D29)</f>
         <v>5.9091917509990211E-2</v>
       </c>
-      <c r="S42" s="36">
-        <f t="shared" si="1"/>
+      <c r="T42" s="36">
+        <f>LN(E42)-LN(E41)</f>
         <v>0.12751332029895973</v>
       </c>
-      <c r="T42" s="36">
-        <f t="shared" si="2"/>
+      <c r="U42" s="36">
+        <f>LN(F42)-LN(F41)</f>
         <v>-6.3113909602277474E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:20">
+    <row r="43" spans="1:21">
       <c r="A43" s="14">
         <v>39507</v>
       </c>
@@ -8441,31 +8573,34 @@
         <v>1330.63</v>
       </c>
       <c r="G43" s="36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>-7.6057334472169683E-2</v>
       </c>
-      <c r="P43" s="29">
-        <f t="shared" si="0"/>
+      <c r="P43" s="14">
+        <v>39507</v>
+      </c>
+      <c r="Q43" s="29">
+        <f>LN(D43)-LN(D42)</f>
         <v>-0.11601889477301874</v>
       </c>
-      <c r="Q43" s="29">
-        <f t="shared" si="3"/>
+      <c r="R43" s="29">
+        <f>LN(D42)-LN(D41)</f>
         <v>0.24426503231156182</v>
       </c>
-      <c r="R43" s="29">
-        <f t="shared" si="5"/>
+      <c r="S43" s="29">
+        <f>LN(D31)-LN(D30)</f>
         <v>8.6524810483776804E-2</v>
       </c>
-      <c r="S43" s="36">
-        <f t="shared" si="1"/>
+      <c r="T43" s="36">
+        <f>LN(E43)-LN(E42)</f>
         <v>-0.10216295470513964</v>
       </c>
-      <c r="T43" s="36">
-        <f t="shared" si="2"/>
+      <c r="U43" s="36">
+        <f>LN(F43)-LN(F42)</f>
         <v>-3.5379707842081665E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:20">
+    <row r="44" spans="1:21">
       <c r="A44" s="14">
         <v>39538</v>
       </c>
@@ -8485,31 +8620,34 @@
         <v>1322.7</v>
       </c>
       <c r="G44" s="36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>8.572947087940351E-2</v>
       </c>
-      <c r="P44" s="29">
-        <f t="shared" si="0"/>
+      <c r="P44" s="14">
+        <v>39538</v>
+      </c>
+      <c r="Q44" s="29">
+        <f>LN(D44)-LN(D43)</f>
         <v>7.9561087262980834E-2</v>
       </c>
-      <c r="Q44" s="29">
-        <f t="shared" si="3"/>
+      <c r="R44" s="29">
+        <f>LN(D43)-LN(D42)</f>
         <v>-0.11601889477301874</v>
       </c>
-      <c r="R44" s="29">
-        <f t="shared" si="5"/>
+      <c r="S44" s="29">
+        <f>LN(D32)-LN(D31)</f>
         <v>3.4844907990615681E-2</v>
       </c>
-      <c r="S44" s="36">
-        <f t="shared" si="1"/>
+      <c r="T44" s="36">
+        <f>LN(E44)-LN(E43)</f>
         <v>0.14291943774448429</v>
       </c>
-      <c r="T44" s="36">
-        <f t="shared" si="2"/>
+      <c r="U44" s="36">
+        <f>LN(F44)-LN(F43)</f>
         <v>-5.9774122413740471E-3</v>
       </c>
     </row>
-    <row r="45" spans="1:20">
+    <row r="45" spans="1:21">
       <c r="A45" s="14">
         <v>39568</v>
       </c>
@@ -8529,31 +8667,34 @@
         <v>1385.59</v>
       </c>
       <c r="G45" s="36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>-9.4653623487453903E-2</v>
       </c>
-      <c r="P45" s="29">
-        <f t="shared" si="0"/>
+      <c r="P45" s="14">
+        <v>39568</v>
+      </c>
+      <c r="Q45" s="29">
+        <f>LN(D45)-LN(D44)</f>
         <v>-0.14244256172352365</v>
       </c>
-      <c r="Q45" s="29">
-        <f t="shared" si="3"/>
+      <c r="R45" s="29">
+        <f>LN(D44)-LN(D43)</f>
         <v>7.9561087262980834E-2</v>
       </c>
-      <c r="R45" s="29">
-        <f t="shared" si="5"/>
+      <c r="S45" s="29">
+        <f>LN(D33)-LN(D32)</f>
         <v>-2.3249809423864676E-2</v>
       </c>
-      <c r="S45" s="36">
-        <f t="shared" si="1"/>
+      <c r="T45" s="36">
+        <f>LN(E45)-LN(E44)</f>
         <v>-0.22727945085825801</v>
       </c>
-      <c r="T45" s="36">
-        <f t="shared" si="2"/>
+      <c r="U45" s="36">
+        <f>LN(F45)-LN(F44)</f>
         <v>4.6450939660056534E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:20">
+    <row r="46" spans="1:21">
       <c r="A46" s="14">
         <v>39598</v>
       </c>
@@ -8573,31 +8714,34 @@
         <v>1400.38</v>
       </c>
       <c r="G46" s="36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>3.7849808009830475E-2</v>
       </c>
-      <c r="P46" s="29">
-        <f t="shared" si="0"/>
+      <c r="P46" s="14">
+        <v>39598</v>
+      </c>
+      <c r="Q46" s="29">
+        <f>LN(D46)-LN(D45)</f>
         <v>4.849421400963827E-2</v>
       </c>
-      <c r="Q46" s="29">
-        <f t="shared" si="3"/>
+      <c r="R46" s="29">
+        <f>LN(D45)-LN(D44)</f>
         <v>-0.14244256172352365</v>
       </c>
-      <c r="R46" s="29">
-        <f t="shared" si="5"/>
+      <c r="S46" s="29">
+        <f>LN(D34)-LN(D33)</f>
         <v>6.6622495895623857E-2</v>
       </c>
-      <c r="S46" s="36">
-        <f t="shared" si="1"/>
+      <c r="T46" s="36">
+        <f>LN(E46)-LN(E45)</f>
         <v>-5.4758203973845898E-2</v>
       </c>
-      <c r="T46" s="36">
-        <f t="shared" si="2"/>
+      <c r="U46" s="36">
+        <f>LN(F46)-LN(F45)</f>
         <v>1.0617586652649891E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:20">
+    <row r="47" spans="1:21">
       <c r="A47" s="14">
         <v>39629</v>
       </c>
@@ -8617,31 +8761,34 @@
         <v>1280</v>
       </c>
       <c r="G47" s="36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>5.7500707537593817E-3</v>
       </c>
-      <c r="P47" s="29">
-        <f t="shared" si="0"/>
+      <c r="P47" s="14">
+        <v>39629</v>
+      </c>
+      <c r="Q47" s="29">
+        <f>LN(D47)-LN(D46)</f>
         <v>0.13768883983854607</v>
       </c>
-      <c r="Q47" s="29">
-        <f t="shared" si="3"/>
+      <c r="R47" s="29">
+        <f>LN(D46)-LN(D45)</f>
         <v>4.849421400963827E-2</v>
       </c>
-      <c r="R47" s="29">
-        <f t="shared" si="5"/>
+      <c r="S47" s="29">
+        <f>LN(D35)-LN(D34)</f>
         <v>1.4126406766445498E-2</v>
       </c>
-      <c r="S47" s="36">
-        <f t="shared" si="1"/>
+      <c r="T47" s="36">
+        <f>LN(E47)-LN(E46)</f>
         <v>5.1397520767341609E-2</v>
       </c>
-      <c r="T47" s="36">
-        <f t="shared" si="2"/>
+      <c r="U47" s="36">
+        <f>LN(F47)-LN(F46)</f>
         <v>-8.9883550431045123E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:20">
+    <row r="48" spans="1:21">
       <c r="A48" s="14">
         <v>39660</v>
       </c>
@@ -8661,31 +8808,34 @@
         <v>1267.3800000000001</v>
       </c>
       <c r="G48" s="36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>6.6809106820119063E-2</v>
       </c>
-      <c r="P48" s="29">
-        <f t="shared" si="0"/>
+      <c r="P48" s="14">
+        <v>39660</v>
+      </c>
+      <c r="Q48" s="29">
+        <f>LN(D48)-LN(D47)</f>
         <v>9.8752503018744164E-3</v>
       </c>
-      <c r="Q48" s="29">
-        <f t="shared" si="3"/>
+      <c r="R48" s="29">
+        <f>LN(D47)-LN(D46)</f>
         <v>0.13768883983854607</v>
       </c>
-      <c r="R48" s="29">
-        <f t="shared" si="5"/>
+      <c r="S48" s="29">
+        <f>LN(D36)-LN(D35)</f>
         <v>1.1072084621552847E-2</v>
       </c>
-      <c r="S48" s="36">
-        <f t="shared" si="1"/>
+      <c r="T48" s="36">
+        <f>LN(E48)-LN(E47)</f>
         <v>0.31155329007412347</v>
       </c>
-      <c r="T48" s="36">
-        <f t="shared" si="2"/>
+      <c r="U48" s="36">
+        <f>LN(F48)-LN(F47)</f>
         <v>-9.9083004864564117E-3</v>
       </c>
     </row>
-    <row r="49" spans="1:20">
+    <row r="49" spans="1:21">
       <c r="A49" s="14">
         <v>39689</v>
       </c>
@@ -8705,31 +8855,34 @@
         <v>1282.83</v>
       </c>
       <c r="G49" s="36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>-2.0140617654322811E-2</v>
       </c>
-      <c r="P49" s="29">
-        <f t="shared" si="0"/>
+      <c r="P49" s="14">
+        <v>39689</v>
+      </c>
+      <c r="Q49" s="29">
+        <f>LN(D49)-LN(D48)</f>
         <v>-0.13609467862433888</v>
       </c>
-      <c r="Q49" s="29">
-        <f t="shared" si="3"/>
+      <c r="R49" s="29">
+        <f>LN(D48)-LN(D47)</f>
         <v>9.8752503018744164E-3</v>
       </c>
-      <c r="R49" s="29">
-        <f t="shared" si="5"/>
+      <c r="S49" s="29">
+        <f>LN(D37)-LN(D36)</f>
         <v>0.1627992338708566</v>
       </c>
-      <c r="S49" s="36">
-        <f t="shared" si="1"/>
+      <c r="T49" s="36">
+        <f>LN(E49)-LN(E48)</f>
         <v>-0.18069874433627053</v>
       </c>
-      <c r="T49" s="36">
-        <f t="shared" si="2"/>
+      <c r="U49" s="36">
+        <f>LN(F49)-LN(F48)</f>
         <v>1.2116797460713258E-2</v>
       </c>
     </row>
-    <row r="50" spans="1:20">
+    <row r="50" spans="1:21">
       <c r="A50" s="14">
         <v>39721</v>
       </c>
@@ -8749,31 +8902,34 @@
         <v>1166.3599999999999</v>
       </c>
       <c r="G50" s="36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>8.4254622951209071E-2</v>
       </c>
-      <c r="P50" s="29">
-        <f t="shared" si="0"/>
+      <c r="P50" s="14">
+        <v>39721</v>
+      </c>
+      <c r="Q50" s="29">
+        <f>LN(D50)-LN(D49)</f>
         <v>0.16946012912363351</v>
       </c>
-      <c r="Q50" s="29">
-        <f t="shared" si="3"/>
+      <c r="R50" s="29">
+        <f>LN(D49)-LN(D48)</f>
         <v>-0.13609467862433888</v>
       </c>
-      <c r="R50" s="29">
-        <f t="shared" si="5"/>
+      <c r="S50" s="29">
+        <f>LN(D38)-LN(D37)</f>
         <v>-0.33170903548371555</v>
       </c>
-      <c r="S50" s="36">
-        <f t="shared" si="1"/>
+      <c r="T50" s="36">
+        <f>LN(E50)-LN(E49)</f>
         <v>0.39580544614869678</v>
       </c>
-      <c r="T50" s="36">
-        <f t="shared" si="2"/>
+      <c r="U50" s="36">
+        <f>LN(F50)-LN(F49)</f>
         <v>-9.518078677437547E-2</v>
       </c>
     </row>
-    <row r="51" spans="1:20">
+    <row r="51" spans="1:21">
       <c r="A51" s="14">
         <v>39752</v>
       </c>
@@ -8793,31 +8949,34 @@
         <v>968.75</v>
       </c>
       <c r="G51" s="36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>0.10303127599303225</v>
       </c>
-      <c r="P51" s="29">
-        <f t="shared" si="0"/>
+      <c r="P51" s="14">
+        <v>39752</v>
+      </c>
+      <c r="Q51" s="29">
+        <f>LN(D51)-LN(D50)</f>
         <v>-3.362594846121425E-2</v>
       </c>
-      <c r="Q51" s="29">
-        <f t="shared" si="3"/>
+      <c r="R51" s="29">
+        <f>LN(D50)-LN(D49)</f>
         <v>0.16946012912363351</v>
       </c>
-      <c r="R51" s="29">
-        <f t="shared" si="5"/>
+      <c r="S51" s="29">
+        <f>LN(D39)-LN(D38)</f>
         <v>6.6896512090828253E-2</v>
       </c>
-      <c r="S51" s="36">
-        <f t="shared" si="1"/>
+      <c r="T51" s="36">
+        <f>LN(E51)-LN(E50)</f>
         <v>0.43098170348998799</v>
       </c>
-      <c r="T51" s="36">
-        <f t="shared" si="2"/>
+      <c r="U51" s="36">
+        <f>LN(F51)-LN(F50)</f>
         <v>-0.18563648644598718</v>
       </c>
     </row>
-    <row r="52" spans="1:20">
+    <row r="52" spans="1:21">
       <c r="A52" s="14">
         <v>39780</v>
       </c>
@@ -8837,31 +8996,34 @@
         <v>896.24</v>
       </c>
       <c r="G52" s="36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>4.2860019088215739E-2</v>
       </c>
-      <c r="P52" s="29">
-        <f t="shared" si="0"/>
+      <c r="P52" s="14">
+        <v>39780</v>
+      </c>
+      <c r="Q52" s="29">
+        <f>LN(D52)-LN(D51)</f>
         <v>-0.12449269297007959</v>
       </c>
-      <c r="Q52" s="29">
-        <f t="shared" si="3"/>
+      <c r="R52" s="29">
+        <f>LN(D51)-LN(D50)</f>
         <v>-3.362594846121425E-2</v>
       </c>
-      <c r="R52" s="29">
-        <f t="shared" si="5"/>
+      <c r="S52" s="29">
+        <f>LN(D40)-LN(D39)</f>
         <v>0.11265946587768916</v>
       </c>
-      <c r="S52" s="36">
-        <f t="shared" si="1"/>
+      <c r="T52" s="36">
+        <f>LN(E52)-LN(E51)</f>
         <v>2.780559095741697E-2</v>
       </c>
-      <c r="T52" s="36">
-        <f t="shared" si="2"/>
+      <c r="U52" s="36">
+        <f>LN(F52)-LN(F51)</f>
         <v>-7.779834641708927E-2</v>
       </c>
     </row>
-    <row r="53" spans="1:20">
+    <row r="53" spans="1:21">
       <c r="A53" s="14">
         <v>39813</v>
       </c>
@@ -8881,31 +9043,34 @@
         <v>903.25</v>
       </c>
       <c r="G53" s="36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>-4.5282030108730102E-2</v>
       </c>
-      <c r="P53" s="29">
-        <f t="shared" si="0"/>
+      <c r="P53" s="14">
+        <v>39813</v>
+      </c>
+      <c r="Q53" s="29">
+        <f>LN(D53)-LN(D52)</f>
         <v>-0.12575560064921021</v>
       </c>
-      <c r="Q53" s="29">
-        <f t="shared" si="3"/>
+      <c r="R53" s="29">
+        <f>LN(D52)-LN(D51)</f>
         <v>-0.12449269297007959</v>
       </c>
-      <c r="R53" s="29">
-        <f t="shared" si="5"/>
+      <c r="S53" s="29">
+        <f>LN(D41)-LN(D40)</f>
         <v>-0.15161796637180913</v>
       </c>
-      <c r="S53" s="36">
-        <f t="shared" si="1"/>
+      <c r="T53" s="36">
+        <f>LN(E53)-LN(E52)</f>
         <v>-0.14422157240226741</v>
       </c>
-      <c r="T53" s="36">
-        <f t="shared" si="2"/>
+      <c r="U53" s="36">
+        <f>LN(F53)-LN(F52)</f>
         <v>7.7911357772819656E-3</v>
       </c>
     </row>
-    <row r="54" spans="1:20">
+    <row r="54" spans="1:21">
       <c r="A54" s="14">
         <v>39843</v>
       </c>
@@ -8925,31 +9090,34 @@
         <v>825.88</v>
       </c>
       <c r="G54" s="36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>9.4619128739963313E-3</v>
       </c>
-      <c r="P54" s="29">
-        <f t="shared" si="0"/>
+      <c r="P54" s="14">
+        <v>39843</v>
+      </c>
+      <c r="Q54" s="29">
+        <f>LN(D54)-LN(D53)</f>
         <v>-7.5799105500532704E-2</v>
       </c>
-      <c r="Q54" s="29">
-        <f t="shared" si="3"/>
+      <c r="R54" s="29">
+        <f>LN(D53)-LN(D52)</f>
         <v>-0.12575560064921021</v>
       </c>
-      <c r="R54" s="29">
-        <f t="shared" si="5"/>
+      <c r="S54" s="29">
+        <f>LN(D42)-LN(D41)</f>
         <v>0.24426503231156182</v>
       </c>
-      <c r="S54" s="36">
-        <f t="shared" si="1"/>
+      <c r="T54" s="36">
+        <f>LN(E54)-LN(E53)</f>
         <v>-0.24773477730940313</v>
       </c>
-      <c r="T54" s="36">
-        <f t="shared" si="2"/>
+      <c r="U54" s="36">
+        <f>LN(F54)-LN(F53)</f>
         <v>-8.9549885511071459E-2</v>
       </c>
     </row>
-    <row r="55" spans="1:20">
+    <row r="55" spans="1:21">
       <c r="A55" s="14">
         <v>39871</v>
       </c>
@@ -8969,31 +9137,34 @@
         <v>735.09</v>
       </c>
       <c r="G55" s="36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>-3.0294757589512146E-2</v>
       </c>
-      <c r="P55" s="29">
-        <f t="shared" si="0"/>
+      <c r="P55" s="14">
+        <v>39871</v>
+      </c>
+      <c r="Q55" s="29">
+        <f>LN(D55)-LN(D54)</f>
         <v>2.8872104633054008E-2</v>
       </c>
-      <c r="Q55" s="29">
-        <f t="shared" si="3"/>
+      <c r="R55" s="29">
+        <f>LN(D54)-LN(D53)</f>
         <v>-7.5799105500532704E-2</v>
       </c>
-      <c r="R55" s="29">
-        <f t="shared" si="5"/>
+      <c r="S55" s="29">
+        <f>LN(D43)-LN(D42)</f>
         <v>-0.11601889477301874</v>
       </c>
-      <c r="S55" s="36">
-        <f t="shared" si="1"/>
+      <c r="T55" s="36">
+        <f>LN(E55)-LN(E54)</f>
         <v>-6.8703823663148644E-2</v>
       </c>
-      <c r="T55" s="36">
-        <f t="shared" si="2"/>
+      <c r="U55" s="36">
+        <f>LN(F55)-LN(F54)</f>
         <v>-0.11645654382051429</v>
       </c>
     </row>
-    <row r="56" spans="1:20">
+    <row r="56" spans="1:21">
       <c r="A56" s="14">
         <v>39903</v>
       </c>
@@ -9013,31 +9184,34 @@
         <v>797.87</v>
       </c>
       <c r="G56" s="36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>0.1070692226148868</v>
       </c>
-      <c r="P56" s="29">
-        <f t="shared" si="0"/>
+      <c r="P56" s="14">
+        <v>39903</v>
+      </c>
+      <c r="Q56" s="29">
+        <f>LN(D56)-LN(D55)</f>
         <v>0.1234414242469235</v>
       </c>
-      <c r="Q56" s="29">
-        <f t="shared" si="3"/>
+      <c r="R56" s="29">
+        <f>LN(D55)-LN(D54)</f>
         <v>2.8872104633054008E-2</v>
       </c>
-      <c r="R56" s="29">
-        <f t="shared" si="5"/>
+      <c r="S56" s="29">
+        <f>LN(D44)-LN(D43)</f>
         <v>7.9561087262980834E-2</v>
       </c>
-      <c r="S56" s="36">
-        <f t="shared" si="1"/>
+      <c r="T56" s="36">
+        <f>LN(E56)-LN(E55)</f>
         <v>0.28873599842321596</v>
       </c>
-      <c r="T56" s="36">
-        <f t="shared" si="2"/>
+      <c r="U56" s="36">
+        <f>LN(F56)-LN(F55)</f>
         <v>8.1952736214644162E-2</v>
       </c>
     </row>
-    <row r="57" spans="1:20">
+    <row r="57" spans="1:21">
       <c r="A57" s="14">
         <v>39933</v>
       </c>
@@ -9057,31 +9231,34 @@
         <v>872.81</v>
       </c>
       <c r="G57" s="36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>-0.1548783149918036</v>
       </c>
-      <c r="P57" s="29">
-        <f t="shared" si="0"/>
+      <c r="P57" s="14">
+        <v>39933</v>
+      </c>
+      <c r="Q57" s="29">
+        <f>LN(D57)-LN(D56)</f>
         <v>1.7797679462130844E-2</v>
       </c>
-      <c r="Q57" s="29">
-        <f t="shared" si="3"/>
+      <c r="R57" s="29">
+        <f>LN(D56)-LN(D55)</f>
         <v>0.1234414242469235</v>
       </c>
-      <c r="R57" s="29">
-        <f t="shared" si="5"/>
+      <c r="S57" s="29">
+        <f>LN(D45)-LN(D44)</f>
         <v>-0.14244256172352365</v>
       </c>
-      <c r="S57" s="36">
-        <f t="shared" si="1"/>
+      <c r="T57" s="36">
+        <f>LN(E57)-LN(E56)</f>
         <v>-0.29945522468354568</v>
       </c>
-      <c r="T57" s="36">
-        <f t="shared" si="2"/>
+      <c r="U57" s="36">
+        <f>LN(F57)-LN(F56)</f>
         <v>8.9772214920969873E-2</v>
       </c>
     </row>
-    <row r="58" spans="1:20">
+    <row r="58" spans="1:21">
       <c r="A58" s="14">
         <v>39962</v>
       </c>
@@ -9101,31 +9278,34 @@
         <v>919.14</v>
       </c>
       <c r="G58" s="36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>-4.1641671379704735E-3</v>
       </c>
-      <c r="P58" s="29">
-        <f t="shared" si="0"/>
+      <c r="P58" s="14">
+        <v>39962</v>
+      </c>
+      <c r="Q58" s="29">
+        <f>LN(D58)-LN(D57)</f>
         <v>8.2760105641392911E-2</v>
       </c>
-      <c r="Q58" s="29">
-        <f t="shared" si="3"/>
+      <c r="R58" s="29">
+        <f>LN(D57)-LN(D56)</f>
         <v>1.7797679462130844E-2</v>
       </c>
-      <c r="R58" s="29">
-        <f t="shared" si="5"/>
+      <c r="S58" s="29">
+        <f>LN(D46)-LN(D45)</f>
         <v>4.849421400963827E-2</v>
       </c>
-      <c r="S58" s="36">
-        <f t="shared" si="1"/>
+      <c r="T58" s="36">
+        <f>LN(E58)-LN(E57)</f>
         <v>-4.5550509894108943E-2</v>
       </c>
-      <c r="T58" s="36">
-        <f t="shared" si="2"/>
+      <c r="U58" s="36">
+        <f>LN(F58)-LN(F57)</f>
         <v>5.1720558420881524E-2</v>
       </c>
     </row>
-    <row r="59" spans="1:20">
+    <row r="59" spans="1:21">
       <c r="A59" s="14">
         <v>39994</v>
       </c>
@@ -9145,31 +9325,34 @@
         <v>919.32</v>
       </c>
       <c r="G59" s="36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>-5.3129451155960551E-2</v>
       </c>
-      <c r="P59" s="29">
-        <f t="shared" si="0"/>
+      <c r="P59" s="14">
+        <v>39994</v>
+      </c>
+      <c r="Q59" s="29">
+        <f>LN(D59)-LN(D58)</f>
         <v>7.1273644202703323E-2</v>
       </c>
-      <c r="Q59" s="29">
-        <f t="shared" si="3"/>
+      <c r="R59" s="29">
+        <f>LN(D58)-LN(D57)</f>
         <v>8.2760105641392911E-2</v>
       </c>
-      <c r="R59" s="29">
-        <f t="shared" si="5"/>
+      <c r="S59" s="29">
+        <f>LN(D47)-LN(D46)</f>
         <v>0.13768883983854607</v>
       </c>
-      <c r="S59" s="36">
-        <f t="shared" si="1"/>
+      <c r="T59" s="36">
+        <f>LN(E59)-LN(E58)</f>
         <v>-0.20478314484993765</v>
       </c>
-      <c r="T59" s="36">
-        <f t="shared" si="2"/>
+      <c r="U59" s="36">
+        <f>LN(F59)-LN(F58)</f>
         <v>1.9581606407026442E-4</v>
       </c>
     </row>
-    <row r="60" spans="1:20">
+    <row r="60" spans="1:21">
       <c r="A60" s="14">
         <v>40025</v>
       </c>
@@ -9189,31 +9372,34 @@
         <v>987.48</v>
       </c>
       <c r="G60" s="36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>-5.4093993520921251E-2</v>
       </c>
-      <c r="P60" s="29">
-        <f t="shared" si="0"/>
+      <c r="P60" s="14">
+        <v>40025</v>
+      </c>
+      <c r="Q60" s="29">
+        <f>LN(D60)-LN(D59)</f>
         <v>-0.21333003524657101</v>
       </c>
-      <c r="Q60" s="29">
-        <f t="shared" si="3"/>
+      <c r="R60" s="29">
+        <f>LN(D59)-LN(D58)</f>
         <v>7.1273644202703323E-2</v>
       </c>
-      <c r="R60" s="29">
-        <f t="shared" si="5"/>
+      <c r="S60" s="29">
+        <f>LN(D48)-LN(D47)</f>
         <v>9.8752503018744164E-3</v>
       </c>
-      <c r="S60" s="36">
-        <f t="shared" si="1"/>
+      <c r="T60" s="36">
+        <f>LN(E60)-LN(E59)</f>
         <v>-0.13287968621690621</v>
       </c>
-      <c r="T60" s="36">
-        <f t="shared" si="2"/>
+      <c r="U60" s="36">
+        <f>LN(F60)-LN(F59)</f>
         <v>7.1521977088892186E-2</v>
       </c>
     </row>
-    <row r="61" spans="1:20">
+    <row r="61" spans="1:21">
       <c r="A61" s="14">
         <v>40056</v>
       </c>
@@ -9233,31 +9419,34 @@
         <v>1020.62</v>
       </c>
       <c r="G61" s="36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>7.9051572785658799E-3</v>
       </c>
-      <c r="P61" s="29">
-        <f t="shared" si="0"/>
+      <c r="P61" s="14">
+        <v>40056</v>
+      </c>
+      <c r="Q61" s="29">
+        <f>LN(D61)-LN(D60)</f>
         <v>0.1148081607337037</v>
       </c>
-      <c r="Q61" s="29">
-        <f t="shared" si="3"/>
+      <c r="R61" s="29">
+        <f>LN(D60)-LN(D59)</f>
         <v>-0.21333003524657101</v>
       </c>
-      <c r="R61" s="29">
-        <f t="shared" si="5"/>
+      <c r="S61" s="29">
+        <f>LN(D49)-LN(D48)</f>
         <v>-0.13609467862433888</v>
       </c>
-      <c r="S61" s="36">
-        <f t="shared" si="1"/>
+      <c r="T61" s="36">
+        <f>LN(E61)-LN(E60)</f>
         <v>-6.4214274429308604E-2</v>
       </c>
-      <c r="T61" s="36">
-        <f t="shared" si="2"/>
+      <c r="U61" s="36">
+        <f>LN(F61)-LN(F60)</f>
         <v>3.3009321348136389E-2</v>
       </c>
     </row>
-    <row r="62" spans="1:20">
+    <row r="62" spans="1:21">
       <c r="A62" s="14">
         <v>40086</v>
       </c>
@@ -9277,31 +9466,34 @@
         <v>1057.08</v>
       </c>
       <c r="G62" s="36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>-2.6318855174276703E-2</v>
       </c>
-      <c r="P62" s="29">
-        <f t="shared" si="0"/>
+      <c r="P62" s="14">
+        <v>40086</v>
+      </c>
+      <c r="Q62" s="29">
+        <f>LN(D62)-LN(D61)</f>
         <v>5.4940108390805875E-2</v>
       </c>
-      <c r="Q62" s="29">
-        <f t="shared" si="3"/>
+      <c r="R62" s="29">
+        <f>LN(D61)-LN(D60)</f>
         <v>0.1148081607337037</v>
       </c>
-      <c r="R62" s="29">
-        <f t="shared" si="5"/>
+      <c r="S62" s="29">
+        <f>LN(D50)-LN(D49)</f>
         <v>0.16946012912363351</v>
       </c>
-      <c r="S62" s="36">
-        <f t="shared" si="1"/>
+      <c r="T62" s="36">
+        <f>LN(E62)-LN(E61)</f>
         <v>-0.12033352510963125</v>
       </c>
-      <c r="T62" s="36">
-        <f t="shared" si="2"/>
+      <c r="U62" s="36">
+        <f>LN(F62)-LN(F61)</f>
         <v>3.5100104155945999E-2</v>
       </c>
     </row>
-    <row r="63" spans="1:20">
+    <row r="63" spans="1:21">
       <c r="A63" s="14">
         <v>40116</v>
       </c>
@@ -9321,31 +9513,34 @@
         <v>1036.19</v>
       </c>
       <c r="G63" s="36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>4.2607292148184144E-3</v>
       </c>
-      <c r="P63" s="29">
-        <f t="shared" si="0"/>
+      <c r="P63" s="14">
+        <v>40116</v>
+      </c>
+      <c r="Q63" s="29">
+        <f>LN(D63)-LN(D62)</f>
         <v>-2.4112190117778098E-2</v>
       </c>
-      <c r="Q63" s="29">
-        <f t="shared" si="3"/>
+      <c r="R63" s="29">
+        <f>LN(D62)-LN(D61)</f>
         <v>5.4940108390805875E-2</v>
       </c>
-      <c r="R63" s="29">
-        <f t="shared" si="5"/>
+      <c r="S63" s="29">
+        <f>LN(D51)-LN(D50)</f>
         <v>-3.362594846121425E-2</v>
       </c>
-      <c r="S63" s="36">
-        <f t="shared" si="1"/>
+      <c r="T63" s="36">
+        <f>LN(E63)-LN(E62)</f>
         <v>7.8916997955572832E-2</v>
       </c>
-      <c r="T63" s="36">
-        <f t="shared" si="2"/>
+      <c r="U63" s="36">
+        <f>LN(F63)-LN(F62)</f>
         <v>-1.995986522217752E-2</v>
       </c>
     </row>
-    <row r="64" spans="1:20">
+    <row r="64" spans="1:21">
       <c r="A64" s="14">
         <v>40147</v>
       </c>
@@ -9365,31 +9560,34 @@
         <v>1095.6300000000001</v>
       </c>
       <c r="G64" s="36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>-4.0555867763931667E-3</v>
       </c>
-      <c r="P64" s="29">
-        <f t="shared" si="0"/>
+      <c r="P64" s="14">
+        <v>40147</v>
+      </c>
+      <c r="Q64" s="29">
+        <f>LN(D64)-LN(D63)</f>
         <v>-0.11231706772514549</v>
       </c>
-      <c r="Q64" s="29">
-        <f t="shared" si="3"/>
+      <c r="R64" s="29">
+        <f>LN(D63)-LN(D62)</f>
         <v>-2.4112190117778098E-2</v>
       </c>
-      <c r="R64" s="29">
-        <f t="shared" si="5"/>
+      <c r="S64" s="29">
+        <f>LN(D52)-LN(D51)</f>
         <v>-0.12449269297007959</v>
       </c>
-      <c r="S64" s="36">
-        <f t="shared" si="1"/>
+      <c r="T64" s="36">
+        <f>LN(E64)-LN(E63)</f>
         <v>4.4376203750355003E-2</v>
       </c>
-      <c r="T64" s="36">
-        <f t="shared" si="2"/>
+      <c r="U64" s="36">
+        <f>LN(F64)-LN(F63)</f>
         <v>5.577901558280729E-2</v>
       </c>
     </row>
-    <row r="65" spans="1:20">
+    <row r="65" spans="1:21">
       <c r="A65" s="14">
         <v>40178</v>
       </c>
@@ -9409,31 +9607,34 @@
         <v>1115.0999999999999</v>
       </c>
       <c r="G65" s="36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>-7.8146040587219204E-2</v>
       </c>
-      <c r="P65" s="29">
-        <f t="shared" si="0"/>
+      <c r="P65" s="14">
+        <v>40178</v>
+      </c>
+      <c r="Q65" s="29">
+        <f>LN(D65)-LN(D64)</f>
         <v>-0.12589840756280068</v>
       </c>
-      <c r="Q65" s="29">
-        <f t="shared" si="3"/>
+      <c r="R65" s="29">
+        <f>LN(D64)-LN(D63)</f>
         <v>-0.11231706772514549</v>
       </c>
-      <c r="R65" s="29">
-        <f t="shared" si="5"/>
+      <c r="S65" s="29">
+        <f>LN(D53)-LN(D52)</f>
         <v>-0.12575560064921021</v>
       </c>
-      <c r="S65" s="36">
-        <f t="shared" si="1"/>
+      <c r="T65" s="36">
+        <f>LN(E65)-LN(E64)</f>
         <v>-0.25748148725067077</v>
       </c>
-      <c r="T65" s="36">
-        <f t="shared" si="2"/>
+      <c r="U65" s="36">
+        <f>LN(F65)-LN(F64)</f>
         <v>1.7614546700982281E-2</v>
       </c>
     </row>
-    <row r="66" spans="1:20">
+    <row r="66" spans="1:21">
       <c r="A66" s="14">
         <v>40207</v>
       </c>
@@ -9453,31 +9654,34 @@
         <v>1073.8699999999999</v>
       </c>
       <c r="G66" s="36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>1.8867499138820291E-2</v>
       </c>
-      <c r="P66" s="29">
-        <f t="shared" si="0"/>
+      <c r="P66" s="14">
+        <v>40207</v>
+      </c>
+      <c r="Q66" s="29">
+        <f>LN(D66)-LN(D65)</f>
         <v>0.10708591594378802</v>
       </c>
-      <c r="Q66" s="29">
-        <f t="shared" si="3"/>
+      <c r="R66" s="29">
+        <f>LN(D65)-LN(D64)</f>
         <v>-0.12589840756280068</v>
       </c>
-      <c r="R66" s="29">
-        <f t="shared" si="5"/>
+      <c r="S66" s="29">
+        <f>LN(D54)-LN(D53)</f>
         <v>-7.5799105500532704E-2</v>
       </c>
-      <c r="S66" s="36">
-        <f t="shared" si="1"/>
+      <c r="T66" s="36">
+        <f>LN(E66)-LN(E65)</f>
         <v>7.142887512380125E-3</v>
       </c>
-      <c r="T66" s="36">
-        <f t="shared" si="2"/>
+      <c r="U66" s="36">
+        <f>LN(F66)-LN(F65)</f>
         <v>-3.7675141059320794E-2</v>
       </c>
     </row>
-    <row r="67" spans="1:20">
+    <row r="67" spans="1:21">
       <c r="A67" s="14">
         <v>40235</v>
       </c>
@@ -9497,31 +9701,34 @@
         <v>1104.49</v>
       </c>
       <c r="G67" s="36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>-2.9639415422131627E-2</v>
       </c>
-      <c r="P67" s="29">
-        <f t="shared" si="0"/>
+      <c r="P67" s="14">
+        <v>40235</v>
+      </c>
+      <c r="Q67" s="29">
+        <f>LN(D67)-LN(D66)</f>
         <v>-4.8486274301613008E-2</v>
       </c>
-      <c r="Q67" s="29">
-        <f t="shared" si="3"/>
+      <c r="R67" s="29">
+        <f>LN(D66)-LN(D65)</f>
         <v>0.10708591594378802</v>
       </c>
-      <c r="R67" s="29">
-        <f t="shared" si="5"/>
+      <c r="S67" s="29">
+        <f>LN(D55)-LN(D54)</f>
         <v>2.8872104633054008E-2</v>
       </c>
-      <c r="S67" s="36">
-        <f t="shared" si="1"/>
+      <c r="T67" s="36">
+        <f>LN(E67)-LN(E66)</f>
         <v>-3.5006591999315217E-2</v>
       </c>
-      <c r="T67" s="36">
-        <f t="shared" si="2"/>
+      <c r="U67" s="36">
+        <f>LN(F67)-LN(F66)</f>
         <v>2.8114744036660255E-2</v>
       </c>
     </row>
-    <row r="68" spans="1:20">
+    <row r="68" spans="1:21">
       <c r="A68" s="14">
         <v>40268</v>
       </c>
@@ -9541,31 +9748,34 @@
         <v>1169.43</v>
       </c>
       <c r="G68" s="36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>-5.225801316535085E-3</v>
       </c>
-      <c r="P68" s="29">
-        <f t="shared" si="0"/>
+      <c r="P68" s="14">
+        <v>40268</v>
+      </c>
+      <c r="Q68" s="29">
+        <f>LN(D68)-LN(D67)</f>
         <v>9.8655684692548817E-2</v>
       </c>
-      <c r="Q68" s="29">
-        <f t="shared" si="3"/>
+      <c r="R68" s="29">
+        <f>LN(D67)-LN(D66)</f>
         <v>-4.8486274301613008E-2</v>
       </c>
-      <c r="R68" s="29">
-        <f t="shared" si="5"/>
+      <c r="S68" s="29">
+        <f>LN(D56)-LN(D55)</f>
         <v>0.1234414242469235</v>
       </c>
-      <c r="S68" s="36">
-        <f t="shared" si="1"/>
+      <c r="T68" s="36">
+        <f>LN(E68)-LN(E67)</f>
         <v>-0.15862422569256662</v>
       </c>
-      <c r="T68" s="36">
-        <f t="shared" si="2"/>
+      <c r="U68" s="36">
+        <f>LN(F68)-LN(F67)</f>
         <v>5.7132760645482783E-2</v>
       </c>
     </row>
-    <row r="69" spans="1:20">
+    <row r="69" spans="1:21">
       <c r="A69" s="14">
         <v>40298</v>
       </c>
@@ -9585,31 +9795,34 @@
         <v>1186.69</v>
       </c>
       <c r="G69" s="36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>3.5237939660075955E-2</v>
       </c>
-      <c r="P69" s="29">
-        <f t="shared" si="0"/>
+      <c r="P69" s="14">
+        <v>40298</v>
+      </c>
+      <c r="Q69" s="29">
+        <f>LN(D69)-LN(D68)</f>
         <v>0.17500151955105991</v>
       </c>
-      <c r="Q69" s="29">
-        <f t="shared" si="3"/>
+      <c r="R69" s="29">
+        <f>LN(D68)-LN(D67)</f>
         <v>9.8655684692548817E-2</v>
       </c>
-      <c r="R69" s="29">
-        <f t="shared" si="5"/>
+      <c r="S69" s="29">
+        <f>LN(D57)-LN(D56)</f>
         <v>1.7797679462130844E-2</v>
       </c>
-      <c r="S69" s="36">
-        <f t="shared" si="1"/>
+      <c r="T69" s="36">
+        <f>LN(E69)-LN(E68)</f>
         <v>0.17204724602470733</v>
       </c>
-      <c r="T69" s="36">
-        <f t="shared" si="2"/>
+      <c r="U69" s="36">
+        <f>LN(F69)-LN(F68)</f>
         <v>1.4651468311863702E-2</v>
       </c>
     </row>
-    <row r="70" spans="1:20">
+    <row r="70" spans="1:21">
       <c r="A70" s="14">
         <v>40326</v>
       </c>
@@ -9629,31 +9842,34 @@
         <v>1089.4100000000001</v>
       </c>
       <c r="G70" s="36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>8.1796924297416862E-2</v>
       </c>
-      <c r="P70" s="29">
-        <f t="shared" si="0"/>
+      <c r="P70" s="14">
+        <v>40326</v>
+      </c>
+      <c r="Q70" s="29">
+        <f>LN(D70)-LN(D69)</f>
         <v>2.7654724218495019E-2</v>
       </c>
-      <c r="Q70" s="29">
-        <f t="shared" si="3"/>
+      <c r="R70" s="29">
+        <f>LN(D69)-LN(D68)</f>
         <v>0.17500151955105991</v>
       </c>
-      <c r="R70" s="29">
-        <f t="shared" si="5"/>
+      <c r="S70" s="29">
+        <f>LN(D58)-LN(D57)</f>
         <v>8.2760105641392911E-2</v>
       </c>
-      <c r="S70" s="36">
-        <f t="shared" si="1"/>
+      <c r="T70" s="36">
+        <f>LN(E70)-LN(E69)</f>
         <v>0.34629397491971281</v>
       </c>
-      <c r="T70" s="36">
-        <f t="shared" si="2"/>
+      <c r="U70" s="36">
+        <f>LN(F70)-LN(F69)</f>
         <v>-8.5531653633770688E-2</v>
       </c>
     </row>
-    <row r="71" spans="1:20">
+    <row r="71" spans="1:21">
       <c r="A71" s="14">
         <v>40359</v>
       </c>
@@ -9673,31 +9889,34 @@
         <v>1030.71</v>
       </c>
       <c r="G71" s="36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>-5.4268112280020001E-2</v>
       </c>
-      <c r="P71" s="29">
-        <f t="shared" si="0"/>
+      <c r="P71" s="14">
+        <v>40359</v>
+      </c>
+      <c r="Q71" s="29">
+        <f>LN(D71)-LN(D70)</f>
         <v>-0.12125465900845178</v>
       </c>
-      <c r="Q71" s="29">
-        <f t="shared" si="3"/>
+      <c r="R71" s="29">
+        <f>LN(D70)-LN(D69)</f>
         <v>2.7654724218495019E-2</v>
       </c>
-      <c r="R71" s="29">
-        <f t="shared" si="5"/>
+      <c r="S71" s="29">
+        <f>LN(D59)-LN(D58)</f>
         <v>7.1273644202703323E-2</v>
       </c>
-      <c r="S71" s="36">
-        <f t="shared" si="1"/>
+      <c r="T71" s="36">
+        <f>LN(E71)-LN(E70)</f>
         <v>-0.20017546678971876</v>
       </c>
-      <c r="T71" s="36">
-        <f t="shared" si="2"/>
+      <c r="U71" s="36">
+        <f>LN(F71)-LN(F70)</f>
         <v>-5.5388380132376014E-2</v>
       </c>
     </row>
-    <row r="72" spans="1:20">
+    <row r="72" spans="1:21">
       <c r="A72" s="14">
         <v>40389</v>
       </c>
@@ -9717,31 +9936,34 @@
         <v>1101.5999999999999</v>
       </c>
       <c r="G72" s="36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>3.4309853739494687E-3</v>
       </c>
-      <c r="P72" s="29">
-        <f t="shared" ref="P72:P125" si="6">LN(D72)-LN(D71)</f>
+      <c r="P72" s="14">
+        <v>40389</v>
+      </c>
+      <c r="Q72" s="29">
+        <f>LN(D72)-LN(D71)</f>
         <v>-0.186711158265215</v>
       </c>
-      <c r="Q72" s="29">
-        <f t="shared" si="3"/>
+      <c r="R72" s="29">
+        <f>LN(D71)-LN(D70)</f>
         <v>-0.12125465900845178</v>
       </c>
-      <c r="R72" s="29">
-        <f t="shared" si="5"/>
+      <c r="S72" s="29">
+        <f>LN(D60)-LN(D59)</f>
         <v>-0.21333003524657101</v>
       </c>
-      <c r="S72" s="36">
-        <f t="shared" ref="S72:S125" si="7">LN(E72)-LN(E71)</f>
+      <c r="T72" s="36">
+        <f>LN(E72)-LN(E71)</f>
         <v>5.0245405786999542E-2</v>
       </c>
-      <c r="T72" s="36">
-        <f t="shared" ref="T72:T125" si="8">LN(F72)-LN(F71)</f>
+      <c r="U72" s="36">
+        <f>LN(F72)-LN(F71)</f>
         <v>6.6515783274589069E-2</v>
       </c>
     </row>
-    <row r="73" spans="1:20">
+    <row r="73" spans="1:21">
       <c r="A73" s="14">
         <v>40421</v>
       </c>
@@ -9761,31 +9983,34 @@
         <v>1049.33</v>
       </c>
       <c r="G73" s="36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>4.0335965862512334E-2</v>
       </c>
-      <c r="P73" s="29">
-        <f t="shared" si="6"/>
+      <c r="P73" s="14">
+        <v>40421</v>
+      </c>
+      <c r="Q73" s="29">
+        <f>LN(D73)-LN(D72)</f>
         <v>-5.9422638061299438E-2</v>
       </c>
-      <c r="Q73" s="29">
-        <f t="shared" ref="Q73:Q125" si="9">LN(D72)-LN(D71)</f>
+      <c r="R73" s="29">
+        <f>LN(D72)-LN(D71)</f>
         <v>-0.186711158265215</v>
       </c>
-      <c r="R73" s="29">
-        <f t="shared" si="5"/>
+      <c r="S73" s="29">
+        <f>LN(D61)-LN(D60)</f>
         <v>0.1148081607337037</v>
       </c>
-      <c r="S73" s="36">
-        <f t="shared" si="7"/>
+      <c r="T73" s="36">
+        <f>LN(E73)-LN(E72)</f>
         <v>-0.11202276548324275</v>
       </c>
-      <c r="T73" s="36">
-        <f t="shared" si="8"/>
+      <c r="U73" s="36">
+        <f>LN(F73)-LN(F72)</f>
         <v>-4.861180317038194E-2</v>
       </c>
     </row>
-    <row r="74" spans="1:20">
+    <row r="74" spans="1:21">
       <c r="A74" s="14">
         <v>40451</v>
       </c>
@@ -9805,31 +10030,34 @@
         <v>1141.2</v>
       </c>
       <c r="G74" s="36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>-7.3690328989519166E-3</v>
       </c>
-      <c r="P74" s="29">
-        <f t="shared" si="6"/>
+      <c r="P74" s="14">
+        <v>40451</v>
+      </c>
+      <c r="Q74" s="29">
+        <f>LN(D74)-LN(D73)</f>
         <v>4.0569197053985206E-2</v>
       </c>
-      <c r="Q74" s="29">
-        <f t="shared" si="9"/>
+      <c r="R74" s="29">
+        <f>LN(D73)-LN(D72)</f>
         <v>-5.9422638061299438E-2</v>
       </c>
-      <c r="R74" s="29">
-        <f t="shared" si="5"/>
+      <c r="S74" s="29">
+        <f>LN(D62)-LN(D61)</f>
         <v>5.4940108390805875E-2</v>
       </c>
-      <c r="S74" s="36">
-        <f t="shared" si="7"/>
+      <c r="T74" s="36">
+        <f>LN(E74)-LN(E73)</f>
         <v>-0.12794478591588276</v>
       </c>
-      <c r="T74" s="36">
-        <f t="shared" si="8"/>
+      <c r="U74" s="36">
+        <f>LN(F74)-LN(F73)</f>
         <v>8.3928475095282451E-2</v>
       </c>
     </row>
-    <row r="75" spans="1:20">
+    <row r="75" spans="1:21">
       <c r="A75" s="14">
         <v>40480</v>
       </c>
@@ -9849,31 +10077,34 @@
         <v>1183.26</v>
       </c>
       <c r="G75" s="36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>-2.9600972357286631E-2</v>
       </c>
-      <c r="P75" s="29">
-        <f t="shared" si="6"/>
+      <c r="P75" s="14">
+        <v>40480</v>
+      </c>
+      <c r="Q75" s="29">
+        <f>LN(D75)-LN(D74)</f>
         <v>4.4824798117812037E-2</v>
       </c>
-      <c r="Q75" s="29">
-        <f t="shared" si="9"/>
+      <c r="R75" s="29">
+        <f>LN(D74)-LN(D73)</f>
         <v>4.0569197053985206E-2</v>
       </c>
-      <c r="R75" s="29">
-        <f t="shared" si="5"/>
+      <c r="S75" s="29">
+        <f>LN(D63)-LN(D62)</f>
         <v>-2.4112190117778098E-2</v>
       </c>
-      <c r="S75" s="36">
-        <f t="shared" si="7"/>
+      <c r="T75" s="36">
+        <f>LN(E75)-LN(E74)</f>
         <v>-5.2773778282615647E-2</v>
       </c>
-      <c r="T75" s="36">
-        <f t="shared" si="8"/>
+      <c r="U75" s="36">
+        <f>LN(F75)-LN(F74)</f>
         <v>3.6193000710687429E-2</v>
       </c>
     </row>
-    <row r="76" spans="1:20">
+    <row r="76" spans="1:21">
       <c r="A76" s="14">
         <v>40512</v>
       </c>
@@ -9893,31 +10124,34 @@
         <v>1180.55</v>
       </c>
       <c r="G76" s="36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>-2.7473233464222653E-2</v>
       </c>
-      <c r="P76" s="29">
-        <f t="shared" si="6"/>
+      <c r="P76" s="14">
+        <v>40512</v>
+      </c>
+      <c r="Q76" s="29">
+        <f>LN(D76)-LN(D75)</f>
         <v>-1.002931336535795E-2</v>
       </c>
-      <c r="Q76" s="29">
-        <f t="shared" si="9"/>
+      <c r="R76" s="29">
+        <f>LN(D75)-LN(D74)</f>
         <v>4.4824798117812037E-2</v>
       </c>
-      <c r="R76" s="29">
-        <f t="shared" si="5"/>
+      <c r="S76" s="29">
+        <f>LN(D64)-LN(D63)</f>
         <v>-0.11231706772514549</v>
       </c>
-      <c r="S76" s="36">
-        <f t="shared" si="7"/>
+      <c r="T76" s="36">
+        <f>LN(E76)-LN(E75)</f>
         <v>2.5304460324468203E-2</v>
       </c>
-      <c r="T76" s="36">
-        <f t="shared" si="8"/>
+      <c r="U76" s="36">
+        <f>LN(F76)-LN(F75)</f>
         <v>-2.2929094870605127E-3</v>
       </c>
     </row>
-    <row r="77" spans="1:20">
+    <row r="77" spans="1:21">
       <c r="A77" s="14">
         <v>40543</v>
       </c>
@@ -9937,31 +10171,34 @@
         <v>1257.6400000000001</v>
       </c>
       <c r="G77" s="36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>-0.10653280104114619</v>
       </c>
-      <c r="P77" s="29">
-        <f t="shared" si="6"/>
+      <c r="P77" s="14">
+        <v>40543</v>
+      </c>
+      <c r="Q77" s="29">
+        <f>LN(D77)-LN(D76)</f>
         <v>-8.0461550775870805E-2</v>
       </c>
-      <c r="Q77" s="29">
-        <f t="shared" si="9"/>
+      <c r="R77" s="29">
+        <f>LN(D76)-LN(D75)</f>
         <v>-1.002931336535795E-2</v>
       </c>
-      <c r="R77" s="29">
-        <f t="shared" si="5"/>
+      <c r="S77" s="29">
+        <f>LN(D65)-LN(D64)</f>
         <v>-0.12589840756280068</v>
       </c>
-      <c r="S77" s="36">
-        <f t="shared" si="7"/>
+      <c r="T77" s="36">
+        <f>LN(E77)-LN(E76)</f>
         <v>-0.26690344216711903</v>
       </c>
-      <c r="T77" s="36">
-        <f t="shared" si="8"/>
+      <c r="U77" s="36">
+        <f>LN(F77)-LN(F76)</f>
         <v>6.32565172219266E-2</v>
       </c>
     </row>
-    <row r="78" spans="1:20">
+    <row r="78" spans="1:21">
       <c r="A78" s="14">
         <v>40574</v>
       </c>
@@ -9981,31 +10218,34 @@
         <v>1286.1199999999999</v>
       </c>
       <c r="G78" s="36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>0.12685189747060957</v>
       </c>
-      <c r="P78" s="29">
-        <f t="shared" si="6"/>
+      <c r="P78" s="14">
+        <v>40574</v>
+      </c>
+      <c r="Q78" s="29">
+        <f>LN(D78)-LN(D77)</f>
         <v>0.14548374699819355</v>
       </c>
-      <c r="Q78" s="29">
-        <f t="shared" si="9"/>
+      <c r="R78" s="29">
+        <f>LN(D77)-LN(D76)</f>
         <v>-8.0461550775870805E-2</v>
       </c>
-      <c r="R78" s="29">
-        <f t="shared" si="5"/>
+      <c r="S78" s="29">
+        <f>LN(D66)-LN(D65)</f>
         <v>0.10708591594378802</v>
       </c>
-      <c r="S78" s="36">
-        <f t="shared" si="7"/>
+      <c r="T78" s="36">
+        <f>LN(E78)-LN(E77)</f>
         <v>0.24692380805571479</v>
       </c>
-      <c r="T78" s="36">
-        <f t="shared" si="8"/>
+      <c r="U78" s="36">
+        <f>LN(F78)-LN(F77)</f>
         <v>2.2392985256517228E-2</v>
       </c>
     </row>
-    <row r="79" spans="1:20">
+    <row r="79" spans="1:21">
       <c r="A79" s="14">
         <v>40602</v>
       </c>
@@ -10025,31 +10265,34 @@
         <v>1327.22</v>
       </c>
       <c r="G79" s="36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>-3.1996474066805225E-2</v>
       </c>
-      <c r="P79" s="29">
-        <f t="shared" si="6"/>
+      <c r="P79" s="14">
+        <v>40602</v>
+      </c>
+      <c r="Q79" s="29">
+        <f>LN(D79)-LN(D78)</f>
         <v>3.5308806876761523E-2</v>
       </c>
-      <c r="Q79" s="29">
-        <f t="shared" si="9"/>
+      <c r="R79" s="29">
+        <f>LN(D78)-LN(D77)</f>
         <v>0.14548374699819355</v>
       </c>
-      <c r="R79" s="29">
-        <f t="shared" si="5"/>
+      <c r="S79" s="29">
+        <f>LN(D67)-LN(D66)</f>
         <v>-4.8486274301613008E-2</v>
       </c>
-      <c r="S79" s="36">
-        <f t="shared" si="7"/>
+      <c r="T79" s="36">
+        <f>LN(E79)-LN(E78)</f>
         <v>4.4913453753808064E-2</v>
       </c>
-      <c r="T79" s="36">
-        <f t="shared" si="8"/>
+      <c r="U79" s="36">
+        <f>LN(F79)-LN(F78)</f>
         <v>3.1456595040144641E-2</v>
       </c>
     </row>
-    <row r="80" spans="1:20">
+    <row r="80" spans="1:21">
       <c r="A80" s="14">
         <v>40633</v>
       </c>
@@ -10069,31 +10312,34 @@
         <v>1325.83</v>
       </c>
       <c r="G80" s="36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>-1.025714987128177E-3</v>
       </c>
-      <c r="P80" s="29">
-        <f t="shared" si="6"/>
+      <c r="P80" s="14">
+        <v>40633</v>
+      </c>
+      <c r="Q80" s="29">
+        <f>LN(D80)-LN(D79)</f>
         <v>2.6667295836828586E-2</v>
       </c>
-      <c r="Q80" s="29">
-        <f t="shared" si="9"/>
+      <c r="R80" s="29">
+        <f>LN(D79)-LN(D78)</f>
         <v>3.5308806876761523E-2</v>
       </c>
-      <c r="R80" s="29">
-        <f t="shared" si="5"/>
+      <c r="S80" s="29">
+        <f>LN(D68)-LN(D67)</f>
         <v>9.8655684692548817E-2</v>
       </c>
-      <c r="S80" s="36">
-        <f t="shared" si="7"/>
+      <c r="T80" s="36">
+        <f>LN(E80)-LN(E79)</f>
         <v>-5.1573928622759668E-2</v>
       </c>
-      <c r="T80" s="36">
-        <f t="shared" si="8"/>
+      <c r="U80" s="36">
+        <f>LN(F80)-LN(F79)</f>
         <v>-1.0478506829381118E-3</v>
       </c>
     </row>
-    <row r="81" spans="1:20">
+    <row r="81" spans="1:21">
       <c r="A81" s="14">
         <v>40662</v>
       </c>
@@ -10113,31 +10359,34 @@
         <v>1363.61</v>
       </c>
       <c r="G81" s="36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>2.3013344359731971E-3</v>
       </c>
-      <c r="P81" s="29">
-        <f t="shared" si="6"/>
+      <c r="P81" s="14">
+        <v>40662</v>
+      </c>
+      <c r="Q81" s="29">
+        <f>LN(D81)-LN(D80)</f>
         <v>-9.4286931330449519E-2</v>
       </c>
-      <c r="Q81" s="29">
-        <f t="shared" si="9"/>
+      <c r="R81" s="29">
+        <f>LN(D80)-LN(D79)</f>
         <v>2.6667295836828586E-2</v>
       </c>
-      <c r="R81" s="29">
-        <f t="shared" si="5"/>
+      <c r="S81" s="29">
+        <f>LN(D69)-LN(D68)</f>
         <v>0.17500151955105991</v>
       </c>
-      <c r="S81" s="36">
-        <f t="shared" si="7"/>
+      <c r="T81" s="36">
+        <f>LN(E81)-LN(E80)</f>
         <v>-0.10651952260787656</v>
       </c>
-      <c r="T81" s="36">
-        <f t="shared" si="8"/>
+      <c r="U81" s="36">
+        <f>LN(F81)-LN(F80)</f>
         <v>2.809691636712941E-2</v>
       </c>
     </row>
-    <row r="82" spans="1:20">
+    <row r="82" spans="1:21">
       <c r="A82" s="14">
         <v>40694</v>
       </c>
@@ -10157,31 +10406,34 @@
         <v>1345.2</v>
       </c>
       <c r="G82" s="36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>7.2434724496687669E-2</v>
       </c>
-      <c r="P82" s="29">
-        <f t="shared" si="6"/>
+      <c r="P82" s="14">
+        <v>40694</v>
+      </c>
+      <c r="Q82" s="29">
+        <f>LN(D82)-LN(D81)</f>
         <v>7.1903393942871929E-2</v>
       </c>
-      <c r="Q82" s="29">
-        <f t="shared" si="9"/>
+      <c r="R82" s="29">
+        <f>LN(D81)-LN(D80)</f>
         <v>-9.4286931330449519E-2</v>
       </c>
-      <c r="R82" s="29">
-        <f t="shared" si="5"/>
+      <c r="S82" s="29">
+        <f>LN(D70)-LN(D69)</f>
         <v>2.7654724218495019E-2</v>
       </c>
-      <c r="S82" s="36">
-        <f t="shared" si="7"/>
+      <c r="T82" s="36">
+        <f>LN(E82)-LN(E81)</f>
         <v>0.12505818913359068</v>
       </c>
-      <c r="T82" s="36">
-        <f t="shared" si="8"/>
+      <c r="U82" s="36">
+        <f>LN(F82)-LN(F81)</f>
         <v>-1.3592893899637026E-2</v>
       </c>
     </row>
-    <row r="83" spans="1:20">
+    <row r="83" spans="1:21">
       <c r="A83" s="14">
         <v>40724</v>
       </c>
@@ -10201,31 +10453,34 @@
         <v>1320.64</v>
       </c>
       <c r="G83" s="36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>-4.3238940872409856E-2</v>
       </c>
-      <c r="P83" s="29">
-        <f t="shared" si="6"/>
+      <c r="P83" s="14">
+        <v>40724</v>
+      </c>
+      <c r="Q83" s="29">
+        <f>LN(D83)-LN(D82)</f>
         <v>6.0487742989266735E-2</v>
       </c>
-      <c r="Q83" s="29">
-        <f t="shared" si="9"/>
+      <c r="R83" s="29">
+        <f>LN(D82)-LN(D81)</f>
         <v>7.1903393942871929E-2</v>
       </c>
-      <c r="R83" s="29">
-        <f t="shared" si="5"/>
+      <c r="S83" s="29">
+        <f>LN(D71)-LN(D70)</f>
         <v>-0.12125465900845178</v>
       </c>
-      <c r="S83" s="36">
-        <f t="shared" si="7"/>
+      <c r="T83" s="36">
+        <f>LN(E83)-LN(E82)</f>
         <v>6.2778129274964067E-3</v>
       </c>
-      <c r="T83" s="36">
-        <f t="shared" si="8"/>
+      <c r="U83" s="36">
+        <f>LN(F83)-LN(F82)</f>
         <v>-1.8426233301897632E-2</v>
       </c>
     </row>
-    <row r="84" spans="1:20">
+    <row r="84" spans="1:21">
       <c r="A84" s="14">
         <v>40753</v>
       </c>
@@ -10245,31 +10500,34 @@
         <v>1292.28</v>
       </c>
       <c r="G84" s="36">
-        <f t="shared" ref="G84:G126" si="10">$N$20+$M$20*Q84+$L$20*R84+$K$20*S84+$J$20*T84</f>
+        <f t="shared" ref="G84:G125" si="1">$N$20+$M$20*R84+$L$20*S84+$K$20*T84+$J$20*U84</f>
         <v>-6.1140753319732927E-2</v>
       </c>
-      <c r="P84" s="29">
-        <f t="shared" si="6"/>
+      <c r="P84" s="14">
+        <v>40753</v>
+      </c>
+      <c r="Q84" s="29">
+        <f>LN(D84)-LN(D83)</f>
         <v>-0.14071981814195134</v>
       </c>
-      <c r="Q84" s="29">
-        <f t="shared" si="9"/>
+      <c r="R84" s="29">
+        <f>LN(D83)-LN(D82)</f>
         <v>6.0487742989266735E-2</v>
       </c>
-      <c r="R84" s="29">
-        <f t="shared" ref="R84:R125" si="11">LN(D72)-LN(D71)</f>
+      <c r="S84" s="29">
+        <f t="shared" ref="S84:S125" si="2">LN(D72)-LN(D71)</f>
         <v>-0.186711158265215</v>
       </c>
-      <c r="S84" s="36">
-        <f t="shared" si="7"/>
+      <c r="T84" s="36">
+        <f>LN(E84)-LN(E83)</f>
         <v>-1.2067302782755807E-2</v>
       </c>
-      <c r="T84" s="36">
-        <f t="shared" si="8"/>
+      <c r="U84" s="36">
+        <f>LN(F84)-LN(F83)</f>
         <v>-2.1708367435427256E-2</v>
       </c>
     </row>
-    <row r="85" spans="1:20">
+    <row r="85" spans="1:21">
       <c r="A85" s="14">
         <v>40786</v>
       </c>
@@ -10289,31 +10547,34 @@
         <v>1218.8900000000001</v>
       </c>
       <c r="G85" s="36">
-        <f t="shared" si="10"/>
+        <f t="shared" si="1"/>
         <v>0.27237660498023081</v>
       </c>
-      <c r="P85" s="29">
-        <f t="shared" si="6"/>
+      <c r="P85" s="14">
+        <v>40786</v>
+      </c>
+      <c r="Q85" s="29">
+        <f>LN(D85)-LN(D84)</f>
         <v>0.30543886745310367</v>
       </c>
-      <c r="Q85" s="29">
-        <f t="shared" si="9"/>
+      <c r="R85" s="29">
+        <f>LN(D84)-LN(D83)</f>
         <v>-0.14071981814195134</v>
       </c>
-      <c r="R85" s="29">
-        <f t="shared" si="11"/>
+      <c r="S85" s="29">
+        <f t="shared" si="2"/>
         <v>-5.9422638061299438E-2</v>
       </c>
-      <c r="S85" s="36">
-        <f t="shared" si="7"/>
+      <c r="T85" s="36">
+        <f>LN(E85)-LN(E84)</f>
         <v>0.78475561102879443</v>
       </c>
-      <c r="T85" s="36">
-        <f t="shared" si="8"/>
+      <c r="U85" s="36">
+        <f>LN(F85)-LN(F84)</f>
         <v>-5.8467491619120793E-2</v>
       </c>
     </row>
-    <row r="86" spans="1:20">
+    <row r="86" spans="1:21">
       <c r="A86" s="14">
         <v>40816</v>
       </c>
@@ -10333,31 +10594,34 @@
         <v>1131.42</v>
       </c>
       <c r="G86" s="36">
-        <f t="shared" si="10"/>
+        <f t="shared" si="1"/>
         <v>-0.19501734940315155</v>
       </c>
-      <c r="P86" s="29">
-        <f t="shared" si="6"/>
+      <c r="P86" s="14">
+        <v>40816</v>
+      </c>
+      <c r="Q86" s="29">
+        <f>LN(D86)-LN(D85)</f>
         <v>-0.21316073032099325</v>
       </c>
-      <c r="Q86" s="29">
-        <f t="shared" si="9"/>
+      <c r="R86" s="29">
+        <f>LN(D85)-LN(D84)</f>
         <v>0.30543886745310367</v>
       </c>
-      <c r="R86" s="29">
-        <f t="shared" si="11"/>
+      <c r="S86" s="29">
+        <f t="shared" si="2"/>
         <v>4.0569197053985206E-2</v>
       </c>
-      <c r="S86" s="36">
-        <f t="shared" si="7"/>
+      <c r="T86" s="36">
+        <f>LN(E86)-LN(E85)</f>
         <v>-0.38910360381311559</v>
       </c>
-      <c r="T86" s="36">
-        <f t="shared" si="8"/>
+      <c r="U86" s="36">
+        <f>LN(F86)-LN(F85)</f>
         <v>-7.4467127542782841E-2</v>
       </c>
     </row>
-    <row r="87" spans="1:20">
+    <row r="87" spans="1:21">
       <c r="A87" s="14">
         <v>40847</v>
       </c>
@@ -10377,31 +10641,34 @@
         <v>1253.3</v>
       </c>
       <c r="G87" s="36">
-        <f t="shared" si="10"/>
+        <f t="shared" si="1"/>
         <v>0.13863741010844738</v>
       </c>
-      <c r="P87" s="29">
-        <f t="shared" si="6"/>
+      <c r="P87" s="14">
+        <v>40847</v>
+      </c>
+      <c r="Q87" s="29">
+        <f>LN(D87)-LN(D86)</f>
         <v>2.9767020116773679E-2</v>
       </c>
-      <c r="Q87" s="29">
-        <f t="shared" si="9"/>
+      <c r="R87" s="29">
+        <f>LN(D86)-LN(D85)</f>
         <v>-0.21316073032099325</v>
       </c>
-      <c r="R87" s="29">
-        <f t="shared" si="11"/>
+      <c r="S87" s="29">
+        <f t="shared" si="2"/>
         <v>4.4824798117812037E-2</v>
       </c>
-      <c r="S87" s="36">
-        <f t="shared" si="7"/>
+      <c r="T87" s="36">
+        <f>LN(E87)-LN(E86)</f>
         <v>0.21012383810590646</v>
       </c>
-      <c r="T87" s="36">
-        <f t="shared" si="8"/>
+      <c r="U87" s="36">
+        <f>LN(F87)-LN(F86)</f>
         <v>0.10230659165059031</v>
       </c>
     </row>
-    <row r="88" spans="1:20">
+    <row r="88" spans="1:21">
       <c r="A88" s="14">
         <v>40877</v>
       </c>
@@ -10421,31 +10688,34 @@
         <v>1246.96</v>
       </c>
       <c r="G88" s="36">
-        <f t="shared" si="10"/>
+        <f t="shared" si="1"/>
         <v>-4.1052142282656912E-2</v>
       </c>
-      <c r="P88" s="29">
-        <f t="shared" si="6"/>
+      <c r="P88" s="14">
+        <v>40877</v>
+      </c>
+      <c r="Q88" s="29">
+        <f>LN(D88)-LN(D87)</f>
         <v>-8.0276613191209378E-2</v>
       </c>
-      <c r="Q88" s="29">
-        <f t="shared" si="9"/>
+      <c r="R88" s="29">
+        <f>LN(D87)-LN(D86)</f>
         <v>2.9767020116773679E-2</v>
       </c>
-      <c r="R88" s="29">
-        <f t="shared" si="11"/>
+      <c r="S88" s="29">
+        <f t="shared" si="2"/>
         <v>-1.002931336535795E-2</v>
       </c>
-      <c r="S88" s="36">
-        <f t="shared" si="7"/>
+      <c r="T88" s="36">
+        <f>LN(E88)-LN(E87)</f>
         <v>-0.10353806059487569</v>
       </c>
-      <c r="T88" s="36">
-        <f t="shared" si="8"/>
+      <c r="U88" s="36">
+        <f>LN(F88)-LN(F87)</f>
         <v>-5.0714834366809569E-3</v>
       </c>
     </row>
-    <row r="89" spans="1:20">
+    <row r="89" spans="1:21">
       <c r="A89" s="14">
         <v>40907</v>
       </c>
@@ -10465,31 +10735,34 @@
         <v>1257.5999999999999</v>
       </c>
       <c r="G89" s="36">
-        <f t="shared" si="10"/>
+        <f t="shared" si="1"/>
         <v>-5.5478820327651342E-2</v>
       </c>
-      <c r="P89" s="29">
-        <f t="shared" si="6"/>
+      <c r="P89" s="14">
+        <v>40907</v>
+      </c>
+      <c r="Q89" s="29">
+        <f>LN(D89)-LN(D88)</f>
         <v>-0.10709862933150838</v>
       </c>
-      <c r="Q89" s="29">
-        <f t="shared" si="9"/>
+      <c r="R89" s="29">
+        <f>LN(D88)-LN(D87)</f>
         <v>-8.0276613191209378E-2</v>
       </c>
-      <c r="R89" s="29">
-        <f t="shared" si="11"/>
+      <c r="S89" s="29">
+        <f t="shared" si="2"/>
         <v>-8.0461550775870805E-2</v>
       </c>
-      <c r="S89" s="36">
-        <f t="shared" si="7"/>
+      <c r="T89" s="36">
+        <f>LN(E89)-LN(E88)</f>
         <v>-0.19108045585356231</v>
       </c>
-      <c r="T89" s="36">
-        <f t="shared" si="8"/>
+      <c r="U89" s="36">
+        <f>LN(F89)-LN(F88)</f>
         <v>8.4965534941465748E-3</v>
       </c>
     </row>
-    <row r="90" spans="1:20">
+    <row r="90" spans="1:21">
       <c r="A90" s="14">
         <v>40939</v>
       </c>
@@ -10509,31 +10782,34 @@
         <v>1312.41</v>
       </c>
       <c r="G90" s="36">
-        <f t="shared" si="10"/>
+        <f t="shared" si="1"/>
         <v>-4.6419545151959556E-2</v>
       </c>
-      <c r="P90" s="29">
-        <f t="shared" si="6"/>
+      <c r="P90" s="14">
+        <v>40939</v>
+      </c>
+      <c r="Q90" s="29">
+        <f>LN(D90)-LN(D89)</f>
         <v>5.690009759791792E-2</v>
       </c>
-      <c r="Q90" s="29">
-        <f t="shared" si="9"/>
+      <c r="R90" s="29">
+        <f>LN(D89)-LN(D88)</f>
         <v>-0.10709862933150838</v>
       </c>
-      <c r="R90" s="29">
-        <f t="shared" si="11"/>
+      <c r="S90" s="29">
+        <f t="shared" si="2"/>
         <v>0.14548374699819355</v>
       </c>
-      <c r="S90" s="36">
-        <f t="shared" si="7"/>
+      <c r="T90" s="36">
+        <f>LN(E90)-LN(E89)</f>
         <v>-0.35155054227958826</v>
       </c>
-      <c r="T90" s="36">
-        <f t="shared" si="8"/>
+      <c r="U90" s="36">
+        <f>LN(F90)-LN(F89)</f>
         <v>4.2659999011137373E-2</v>
       </c>
     </row>
-    <row r="91" spans="1:20">
+    <row r="91" spans="1:21">
       <c r="A91" s="14">
         <v>40968</v>
       </c>
@@ -10553,31 +10829,34 @@
         <v>1365.68</v>
       </c>
       <c r="G91" s="36">
-        <f t="shared" si="10"/>
+        <f t="shared" si="1"/>
         <v>3.1032007938443944E-2</v>
       </c>
-      <c r="P91" s="29">
-        <f t="shared" si="6"/>
+      <c r="P91" s="14">
+        <v>40968</v>
+      </c>
+      <c r="Q91" s="29">
+        <f>LN(D91)-LN(D90)</f>
         <v>0.11096600288098202</v>
       </c>
-      <c r="Q91" s="29">
-        <f t="shared" si="9"/>
+      <c r="R91" s="29">
+        <f>LN(D90)-LN(D89)</f>
         <v>5.690009759791792E-2</v>
       </c>
-      <c r="R91" s="29">
-        <f t="shared" si="11"/>
+      <c r="S91" s="29">
+        <f t="shared" si="2"/>
         <v>3.5308806876761523E-2</v>
       </c>
-      <c r="S91" s="36">
-        <f t="shared" si="7"/>
+      <c r="T91" s="36">
+        <f>LN(E91)-LN(E90)</f>
         <v>0.10873486559428736</v>
       </c>
-      <c r="T91" s="36">
-        <f t="shared" si="8"/>
+      <c r="U91" s="36">
+        <f>LN(F91)-LN(F90)</f>
         <v>3.9787331386417435E-2</v>
       </c>
     </row>
-    <row r="92" spans="1:20">
+    <row r="92" spans="1:21">
       <c r="A92" s="14">
         <v>40998</v>
       </c>
@@ -10597,31 +10876,34 @@
         <v>1408.47</v>
       </c>
       <c r="G92" s="36">
-        <f t="shared" si="10"/>
+        <f t="shared" si="1"/>
         <v>-4.551497843428913E-2</v>
       </c>
-      <c r="P92" s="29">
-        <f t="shared" si="6"/>
+      <c r="P92" s="14">
+        <v>40998</v>
+      </c>
+      <c r="Q92" s="29">
+        <f>LN(D92)-LN(D91)</f>
         <v>-6.4216006090035194E-2</v>
       </c>
-      <c r="Q92" s="29">
-        <f t="shared" si="9"/>
+      <c r="R92" s="29">
+        <f>LN(D91)-LN(D90)</f>
         <v>0.11096600288098202</v>
       </c>
-      <c r="R92" s="29">
-        <f t="shared" si="11"/>
+      <c r="S92" s="29">
+        <f t="shared" si="2"/>
         <v>2.6667295836828586E-2</v>
       </c>
-      <c r="S92" s="36">
-        <f t="shared" si="7"/>
+      <c r="T92" s="36">
+        <f>LN(E92)-LN(E91)</f>
         <v>-8.0556355302018212E-2</v>
       </c>
-      <c r="T92" s="36">
-        <f t="shared" si="8"/>
+      <c r="U92" s="36">
+        <f>LN(F92)-LN(F91)</f>
         <v>3.085153576257138E-2</v>
       </c>
     </row>
-    <row r="93" spans="1:20">
+    <row r="93" spans="1:21">
       <c r="A93" s="14">
         <v>41029</v>
       </c>
@@ -10641,31 +10923,34 @@
         <v>1397.91</v>
       </c>
       <c r="G93" s="36">
-        <f t="shared" si="10"/>
+        <f t="shared" si="1"/>
         <v>1.1655003449664114E-2</v>
       </c>
-      <c r="P93" s="29">
-        <f t="shared" si="6"/>
+      <c r="P93" s="14">
+        <v>41029</v>
+      </c>
+      <c r="Q93" s="29">
+        <f>LN(D93)-LN(D92)</f>
         <v>-5.6442241695590312E-2</v>
       </c>
-      <c r="Q93" s="29">
-        <f t="shared" si="9"/>
+      <c r="R93" s="29">
+        <f>LN(D92)-LN(D91)</f>
         <v>-6.4216006090035194E-2</v>
       </c>
-      <c r="R93" s="29">
-        <f t="shared" si="11"/>
+      <c r="S93" s="29">
+        <f t="shared" si="2"/>
         <v>-9.4286931330449519E-2</v>
       </c>
-      <c r="S93" s="36">
-        <f t="shared" si="7"/>
+      <c r="T93" s="36">
+        <f>LN(E93)-LN(E92)</f>
         <v>4.5693890600057019E-2</v>
       </c>
-      <c r="T93" s="36">
-        <f t="shared" si="8"/>
+      <c r="U93" s="36">
+        <f>LN(F93)-LN(F92)</f>
         <v>-7.5257447960481727E-3</v>
       </c>
     </row>
-    <row r="94" spans="1:20">
+    <row r="94" spans="1:21">
       <c r="A94" s="14">
         <v>41060</v>
       </c>
@@ -10685,31 +10970,34 @@
         <v>1310.33</v>
       </c>
       <c r="G94" s="36">
-        <f t="shared" si="10"/>
+        <f t="shared" si="1"/>
         <v>4.7656432913127635E-2</v>
       </c>
-      <c r="P94" s="29">
-        <f t="shared" si="6"/>
+      <c r="P94" s="14">
+        <v>41060</v>
+      </c>
+      <c r="Q94" s="29">
+        <f>LN(D94)-LN(D93)</f>
         <v>6.9593271602176543E-2</v>
       </c>
-      <c r="Q94" s="29">
-        <f t="shared" si="9"/>
+      <c r="R94" s="29">
+        <f>LN(D93)-LN(D92)</f>
         <v>-5.6442241695590312E-2</v>
       </c>
-      <c r="R94" s="29">
-        <f t="shared" si="11"/>
+      <c r="S94" s="29">
+        <f t="shared" si="2"/>
         <v>7.1903393942871929E-2</v>
       </c>
-      <c r="S94" s="36">
-        <f t="shared" si="7"/>
+      <c r="T94" s="36">
+        <f>LN(E94)-LN(E93)</f>
         <v>5.1969431248095832E-2</v>
       </c>
-      <c r="T94" s="36">
-        <f t="shared" si="8"/>
+      <c r="U94" s="36">
+        <f>LN(F94)-LN(F93)</f>
         <v>-6.4699250170469291E-2</v>
       </c>
     </row>
-    <row r="95" spans="1:20">
+    <row r="95" spans="1:21">
       <c r="A95" s="14">
         <v>41089</v>
       </c>
@@ -10729,31 +11017,34 @@
         <v>1362.16</v>
       </c>
       <c r="G95" s="36">
-        <f t="shared" si="10"/>
+        <f t="shared" si="1"/>
         <v>1.5332731950133176E-2</v>
       </c>
-      <c r="P95" s="29">
-        <f t="shared" si="6"/>
+      <c r="P95" s="14">
+        <v>41089</v>
+      </c>
+      <c r="Q95" s="29">
+        <f>LN(D95)-LN(D94)</f>
         <v>6.9602228461715043E-2</v>
       </c>
-      <c r="Q95" s="29">
-        <f t="shared" si="9"/>
+      <c r="R95" s="29">
+        <f>LN(D94)-LN(D93)</f>
         <v>6.9593271602176543E-2</v>
       </c>
-      <c r="R95" s="29">
-        <f t="shared" si="11"/>
+      <c r="S95" s="29">
+        <f t="shared" si="2"/>
         <v>6.0487742989266735E-2</v>
       </c>
-      <c r="S95" s="36">
-        <f t="shared" si="7"/>
+      <c r="T95" s="36">
+        <f>LN(E95)-LN(E94)</f>
         <v>5.1705131063793042E-2</v>
       </c>
-      <c r="T95" s="36">
-        <f t="shared" si="8"/>
+      <c r="U95" s="36">
+        <f>LN(F95)-LN(F94)</f>
         <v>3.8792661243837401E-2</v>
       </c>
     </row>
-    <row r="96" spans="1:20">
+    <row r="96" spans="1:21">
       <c r="A96" s="14">
         <v>41121</v>
       </c>
@@ -10773,31 +11064,34 @@
         <v>1379.32</v>
       </c>
       <c r="G96" s="36">
-        <f t="shared" si="10"/>
+        <f t="shared" si="1"/>
         <v>-6.827194503271701E-2</v>
       </c>
-      <c r="P96" s="29">
-        <f t="shared" si="6"/>
+      <c r="P96" s="14">
+        <v>41121</v>
+      </c>
+      <c r="Q96" s="29">
+        <f>LN(D96)-LN(D95)</f>
         <v>-0.14843187720224371</v>
       </c>
-      <c r="Q96" s="29">
-        <f t="shared" si="9"/>
+      <c r="R96" s="29">
+        <f>LN(D95)-LN(D94)</f>
         <v>6.9602228461715043E-2</v>
       </c>
-      <c r="R96" s="29">
-        <f t="shared" si="11"/>
+      <c r="S96" s="29">
+        <f t="shared" si="2"/>
         <v>-0.14071981814195134</v>
       </c>
-      <c r="S96" s="36">
-        <f t="shared" si="7"/>
+      <c r="T96" s="36">
+        <f>LN(E96)-LN(E95)</f>
         <v>-6.3894457997121457E-2</v>
       </c>
-      <c r="T96" s="36">
-        <f t="shared" si="8"/>
+      <c r="U96" s="36">
+        <f>LN(F96)-LN(F95)</f>
         <v>1.2518948972711108E-2</v>
       </c>
     </row>
-    <row r="97" spans="1:20">
+    <row r="97" spans="1:21">
       <c r="A97" s="14">
         <v>41152</v>
       </c>
@@ -10817,31 +11111,34 @@
         <v>1406.58</v>
       </c>
       <c r="G97" s="36">
-        <f t="shared" si="10"/>
+        <f t="shared" si="1"/>
         <v>-3.1344847174360459E-2</v>
       </c>
-      <c r="P97" s="29">
-        <f t="shared" si="6"/>
+      <c r="P97" s="14">
+        <v>41152</v>
+      </c>
+      <c r="Q97" s="29">
+        <f>LN(D97)-LN(D96)</f>
         <v>-0.1545426236751144</v>
       </c>
-      <c r="Q97" s="29">
-        <f t="shared" si="9"/>
+      <c r="R97" s="29">
+        <f>LN(D96)-LN(D95)</f>
         <v>-0.14843187720224371</v>
       </c>
-      <c r="R97" s="29">
-        <f t="shared" si="11"/>
+      <c r="S97" s="29">
+        <f t="shared" si="2"/>
         <v>0.30543886745310367</v>
       </c>
-      <c r="S97" s="36">
-        <f t="shared" si="7"/>
+      <c r="T97" s="36">
+        <f>LN(E97)-LN(E96)</f>
         <v>-0.45126088751471682</v>
       </c>
-      <c r="T97" s="36">
-        <f t="shared" si="8"/>
+      <c r="U97" s="36">
+        <f>LN(F97)-LN(F96)</f>
         <v>1.9570602004382209E-2</v>
       </c>
     </row>
-    <row r="98" spans="1:20">
+    <row r="98" spans="1:21">
       <c r="A98" s="14">
         <v>41180</v>
       </c>
@@ -10861,31 +11158,34 @@
         <v>1440.67</v>
       </c>
       <c r="G98" s="36">
-        <f t="shared" si="10"/>
+        <f t="shared" si="1"/>
         <v>2.8271564510561679E-2</v>
       </c>
-      <c r="P98" s="29">
-        <f t="shared" si="6"/>
+      <c r="P98" s="14">
+        <v>41180</v>
+      </c>
+      <c r="Q98" s="29">
+        <f>LN(D98)-LN(D97)</f>
         <v>0.19014586981021964</v>
       </c>
-      <c r="Q98" s="29">
-        <f t="shared" si="9"/>
+      <c r="R98" s="29">
+        <f>LN(D97)-LN(D96)</f>
         <v>-0.1545426236751144</v>
       </c>
-      <c r="R98" s="29">
-        <f t="shared" si="11"/>
+      <c r="S98" s="29">
+        <f t="shared" si="2"/>
         <v>-0.21316073032099325</v>
       </c>
-      <c r="S98" s="36">
-        <f t="shared" si="7"/>
+      <c r="T98" s="36">
+        <f>LN(E98)-LN(E97)</f>
         <v>0.10543941955498837</v>
       </c>
-      <c r="T98" s="36">
-        <f t="shared" si="8"/>
+      <c r="U98" s="36">
+        <f>LN(F98)-LN(F97)</f>
         <v>2.3947057050200726E-2</v>
       </c>
     </row>
-    <row r="99" spans="1:20">
+    <row r="99" spans="1:21">
       <c r="A99" s="14">
         <v>41213</v>
       </c>
@@ -10905,31 +11205,34 @@
         <v>1412.16</v>
       </c>
       <c r="G99" s="36">
-        <f t="shared" si="10"/>
+        <f t="shared" si="1"/>
         <v>-0.10403752074081483</v>
       </c>
-      <c r="P99" s="29">
-        <f t="shared" si="6"/>
+      <c r="P99" s="14">
+        <v>41213</v>
+      </c>
+      <c r="Q99" s="29">
+        <f>LN(D99)-LN(D98)</f>
         <v>-0.10553505241704109</v>
       </c>
-      <c r="Q99" s="29">
-        <f t="shared" si="9"/>
+      <c r="R99" s="29">
+        <f>LN(D98)-LN(D97)</f>
         <v>0.19014586981021964</v>
       </c>
-      <c r="R99" s="29">
-        <f t="shared" si="11"/>
+      <c r="S99" s="29">
+        <f t="shared" si="2"/>
         <v>2.9767020116773679E-2</v>
       </c>
-      <c r="S99" s="36">
-        <f t="shared" si="7"/>
+      <c r="T99" s="36">
+        <f>LN(E99)-LN(E98)</f>
         <v>-0.19606598269789521</v>
       </c>
-      <c r="T99" s="36">
-        <f t="shared" si="8"/>
+      <c r="U99" s="36">
+        <f>LN(F99)-LN(F98)</f>
         <v>-1.9987836058500186E-2</v>
       </c>
     </row>
-    <row r="100" spans="1:20">
+    <row r="100" spans="1:21">
       <c r="A100" s="19">
         <v>41243</v>
       </c>
@@ -10949,31 +11252,34 @@
         <v>1416.18</v>
       </c>
       <c r="G100" s="36">
-        <f t="shared" si="10"/>
+        <f t="shared" si="1"/>
         <v>0.1612122178227223</v>
       </c>
-      <c r="P100" s="29">
-        <f t="shared" si="6"/>
+      <c r="P100" s="19">
+        <v>41243</v>
+      </c>
+      <c r="Q100" s="29">
+        <f>LN(D100)-LN(D99)</f>
         <v>1.6174861612132219E-2</v>
       </c>
-      <c r="Q100" s="29">
-        <f t="shared" si="9"/>
+      <c r="R100" s="29">
+        <f>LN(D99)-LN(D98)</f>
         <v>-0.10553505241704109</v>
       </c>
-      <c r="R100" s="29">
-        <f t="shared" si="11"/>
+      <c r="S100" s="29">
+        <f t="shared" si="2"/>
         <v>-8.0276613191209378E-2</v>
       </c>
-      <c r="S100" s="36">
-        <f t="shared" si="7"/>
+      <c r="T100" s="36">
+        <f>LN(E100)-LN(E99)</f>
         <v>0.47179161929098834</v>
       </c>
-      <c r="T100" s="36">
-        <f t="shared" si="8"/>
+      <c r="U100" s="36">
+        <f>LN(F100)-LN(F99)</f>
         <v>2.8426587376602086E-3</v>
       </c>
     </row>
-    <row r="101" spans="1:20">
+    <row r="101" spans="1:21">
       <c r="A101" s="19">
         <v>41274</v>
       </c>
@@ -10993,31 +11299,34 @@
         <v>1426.19</v>
       </c>
       <c r="G101" s="36">
-        <f t="shared" si="10"/>
+        <f t="shared" si="1"/>
         <v>-0.14712906670744594</v>
       </c>
-      <c r="P101" s="29">
-        <f t="shared" si="6"/>
+      <c r="P101" s="19">
+        <v>41274</v>
+      </c>
+      <c r="Q101" s="29">
+        <f>LN(D101)-LN(D100)</f>
         <v>-9.4600864947640417E-3</v>
       </c>
-      <c r="Q101" s="29">
-        <f t="shared" si="9"/>
+      <c r="R101" s="29">
+        <f>LN(D100)-LN(D99)</f>
         <v>1.6174861612132219E-2</v>
       </c>
-      <c r="R101" s="29">
-        <f t="shared" si="11"/>
+      <c r="S101" s="29">
+        <f t="shared" si="2"/>
         <v>-0.10709862933150838</v>
       </c>
-      <c r="S101" s="36">
-        <f t="shared" si="7"/>
+      <c r="T101" s="36">
+        <f>LN(E101)-LN(E100)</f>
         <v>-0.38062513437407808</v>
       </c>
-      <c r="T101" s="36">
-        <f t="shared" si="8"/>
+      <c r="U101" s="36">
+        <f>LN(F101)-LN(F100)</f>
         <v>7.0434471114575459E-3</v>
       </c>
     </row>
-    <row r="102" spans="1:20">
+    <row r="102" spans="1:21">
       <c r="A102" s="22">
         <v>41305</v>
       </c>
@@ -11037,31 +11346,34 @@
         <v>1498.1109300000001</v>
       </c>
       <c r="G102" s="36">
-        <f t="shared" si="10"/>
+        <f t="shared" si="1"/>
         <v>0.14085458662121367</v>
       </c>
-      <c r="P102" s="29">
-        <f t="shared" si="6"/>
+      <c r="P102" s="22">
+        <v>41305</v>
+      </c>
+      <c r="Q102" s="29">
+        <f>LN(D102)-LN(D101)</f>
         <v>4.0792950881286316E-2</v>
       </c>
-      <c r="Q102" s="29">
-        <f t="shared" si="9"/>
+      <c r="R102" s="29">
+        <f>LN(D101)-LN(D100)</f>
         <v>-9.4600864947640417E-3</v>
       </c>
-      <c r="R102" s="29">
-        <f t="shared" si="11"/>
+      <c r="S102" s="29">
+        <f t="shared" si="2"/>
         <v>5.690009759791792E-2</v>
       </c>
-      <c r="S102" s="36">
-        <f t="shared" si="7"/>
+      <c r="T102" s="36">
+        <f>LN(E102)-LN(E101)</f>
         <v>0.38335815671936813</v>
       </c>
-      <c r="T102" s="36">
-        <f t="shared" si="8"/>
+      <c r="U102" s="36">
+        <f>LN(F102)-LN(F101)</f>
         <v>4.9198381474571562E-2</v>
       </c>
     </row>
-    <row r="103" spans="1:20">
+    <row r="103" spans="1:21">
       <c r="A103" s="22">
         <v>41333</v>
       </c>
@@ -11081,31 +11393,34 @@
         <v>1514.6782700000001</v>
       </c>
       <c r="G103" s="36">
-        <f t="shared" si="10"/>
+        <f t="shared" si="1"/>
         <v>-9.5280272537276948E-3</v>
       </c>
-      <c r="P103" s="29">
-        <f t="shared" si="6"/>
+      <c r="P103" s="22">
+        <v>41333</v>
+      </c>
+      <c r="Q103" s="29">
+        <f>LN(D103)-LN(D102)</f>
         <v>2.5082952568435957E-2</v>
       </c>
-      <c r="Q103" s="29">
-        <f t="shared" si="9"/>
+      <c r="R103" s="29">
+        <f>LN(D102)-LN(D101)</f>
         <v>4.0792950881286316E-2</v>
       </c>
-      <c r="R103" s="29">
-        <f t="shared" si="11"/>
+      <c r="S103" s="29">
+        <f t="shared" si="2"/>
         <v>0.11096600288098202</v>
       </c>
-      <c r="S103" s="36">
-        <f t="shared" si="7"/>
+      <c r="T103" s="36">
+        <f>LN(E103)-LN(E102)</f>
         <v>-8.402481744147694E-2</v>
       </c>
-      <c r="T103" s="36">
-        <f t="shared" si="8"/>
+      <c r="U103" s="36">
+        <f>LN(F103)-LN(F102)</f>
         <v>1.0998118950071856E-2</v>
       </c>
     </row>
-    <row r="104" spans="1:20">
+    <row r="104" spans="1:21">
       <c r="A104" s="22">
         <v>41361</v>
       </c>
@@ -11125,31 +11440,34 @@
         <v>1569.18587</v>
       </c>
       <c r="G104" s="36">
-        <f t="shared" si="10"/>
+        <f t="shared" si="1"/>
         <v>-2.233983173888238E-2</v>
       </c>
-      <c r="P104" s="29">
-        <f t="shared" si="6"/>
+      <c r="P104" s="22">
+        <v>41361</v>
+      </c>
+      <c r="Q104" s="29">
+        <f>LN(D104)-LN(D103)</f>
         <v>2.2339317348322396E-2</v>
       </c>
-      <c r="Q104" s="29">
-        <f t="shared" si="9"/>
+      <c r="R104" s="29">
+        <f>LN(D103)-LN(D102)</f>
         <v>2.5082952568435957E-2</v>
       </c>
-      <c r="R104" s="29">
-        <f t="shared" si="11"/>
+      <c r="S104" s="29">
+        <f t="shared" si="2"/>
         <v>-6.4216006090035194E-2</v>
       </c>
-      <c r="S104" s="36">
-        <f t="shared" si="7"/>
+      <c r="T104" s="36">
+        <f>LN(E104)-LN(E103)</f>
         <v>-1.3705265305041348E-2</v>
       </c>
-      <c r="T104" s="36">
-        <f t="shared" si="8"/>
+      <c r="U104" s="36">
+        <f>LN(F104)-LN(F103)</f>
         <v>3.535387735158757E-2</v>
       </c>
     </row>
-    <row r="105" spans="1:20">
+    <row r="105" spans="1:21">
       <c r="A105" s="22">
         <v>41394</v>
       </c>
@@ -11169,31 +11487,34 @@
         <v>1597.56567</v>
       </c>
       <c r="G105" s="36">
-        <f t="shared" si="10"/>
+        <f t="shared" si="1"/>
         <v>-1.2121619368779086E-2</v>
       </c>
-      <c r="P105" s="29">
-        <f t="shared" si="6"/>
+      <c r="P105" s="22">
+        <v>41394</v>
+      </c>
+      <c r="Q105" s="29">
+        <f>LN(D105)-LN(D104)</f>
         <v>-6.9502003352733155E-2</v>
       </c>
-      <c r="Q105" s="29">
-        <f t="shared" si="9"/>
+      <c r="R105" s="29">
+        <f>LN(D104)-LN(D103)</f>
         <v>2.2339317348322396E-2</v>
       </c>
-      <c r="R105" s="29">
-        <f t="shared" si="11"/>
+      <c r="S105" s="29">
+        <f t="shared" si="2"/>
         <v>-5.6442241695590312E-2</v>
       </c>
-      <c r="S105" s="36">
-        <f t="shared" si="7"/>
+      <c r="T105" s="36">
+        <f>LN(E105)-LN(E104)</f>
         <v>1.2524666968669607E-2</v>
       </c>
-      <c r="T105" s="36">
-        <f t="shared" si="8"/>
+      <c r="U105" s="36">
+        <f>LN(F105)-LN(F104)</f>
         <v>1.7924083681469583E-2</v>
       </c>
     </row>
-    <row r="106" spans="1:20">
+    <row r="106" spans="1:21">
       <c r="A106" s="22">
         <v>41425</v>
       </c>
@@ -11213,31 +11534,34 @@
         <v>1630.74189</v>
       </c>
       <c r="G106" s="36">
-        <f t="shared" si="10"/>
+        <f t="shared" si="1"/>
         <v>6.3637925273338558E-2</v>
       </c>
-      <c r="P106" s="29">
-        <f t="shared" si="6"/>
+      <c r="P106" s="22">
+        <v>41425</v>
+      </c>
+      <c r="Q106" s="29">
+        <f>LN(D106)-LN(D105)</f>
         <v>6.7833812382245284E-2</v>
       </c>
-      <c r="Q106" s="29">
-        <f t="shared" si="9"/>
+      <c r="R106" s="29">
+        <f>LN(D105)-LN(D104)</f>
         <v>-6.9502003352733155E-2</v>
       </c>
-      <c r="R106" s="29">
-        <f t="shared" si="11"/>
+      <c r="S106" s="29">
+        <f t="shared" si="2"/>
         <v>6.9593271602176543E-2</v>
       </c>
-      <c r="S106" s="36">
-        <f t="shared" si="7"/>
+      <c r="T106" s="36">
+        <f>LN(E106)-LN(E105)</f>
         <v>8.3926917124141909E-2</v>
       </c>
-      <c r="T106" s="36">
-        <f t="shared" si="8"/>
+      <c r="U106" s="36">
+        <f>LN(F106)-LN(F105)</f>
         <v>2.0554044103985092E-2</v>
       </c>
     </row>
-    <row r="107" spans="1:20">
+    <row r="107" spans="1:21">
       <c r="A107" s="22">
         <v>41455</v>
       </c>
@@ -11257,31 +11581,34 @@
         <v>1606.2776100000001</v>
       </c>
       <c r="G107" s="36">
-        <f t="shared" si="10"/>
+        <f t="shared" si="1"/>
         <v>-1.1035440328126095E-3</v>
       </c>
-      <c r="P107" s="29">
-        <f t="shared" si="6"/>
+      <c r="P107" s="22">
+        <v>41455</v>
+      </c>
+      <c r="Q107" s="29">
+        <f>LN(D107)-LN(D106)</f>
         <v>7.4136157146545756E-2</v>
       </c>
-      <c r="Q107" s="29">
-        <f t="shared" si="9"/>
+      <c r="R107" s="29">
+        <f>LN(D106)-LN(D105)</f>
         <v>6.7833812382245284E-2</v>
       </c>
-      <c r="R107" s="29">
-        <f t="shared" si="11"/>
+      <c r="S107" s="29">
+        <f t="shared" si="2"/>
         <v>6.9602228461715043E-2</v>
       </c>
-      <c r="S107" s="36">
-        <f t="shared" si="7"/>
+      <c r="T107" s="36">
+        <f>LN(E107)-LN(E106)</f>
         <v>-2.3108128601824207E-3</v>
       </c>
-      <c r="T107" s="36">
-        <f t="shared" si="8"/>
+      <c r="U107" s="36">
+        <f>LN(F107)-LN(F106)</f>
         <v>-1.5115599891128539E-2</v>
       </c>
     </row>
-    <row r="108" spans="1:20">
+    <row r="108" spans="1:21">
       <c r="A108" s="22">
         <v>41486</v>
       </c>
@@ -11301,31 +11628,34 @@
         <v>1685.7250200000001</v>
       </c>
       <c r="G108" s="36">
-        <f t="shared" si="10"/>
+        <f t="shared" si="1"/>
         <v>-4.8176409417953175E-2</v>
       </c>
-      <c r="P108" s="29">
-        <f t="shared" si="6"/>
+      <c r="P108" s="22">
+        <v>41486</v>
+      </c>
+      <c r="Q108" s="29">
+        <f>LN(D108)-LN(D107)</f>
         <v>-0.21860539803998513</v>
       </c>
-      <c r="Q108" s="29">
-        <f t="shared" si="9"/>
+      <c r="R108" s="29">
+        <f>LN(D107)-LN(D106)</f>
         <v>7.4136157146545756E-2</v>
       </c>
-      <c r="R108" s="29">
-        <f t="shared" si="11"/>
+      <c r="S108" s="29">
+        <f t="shared" si="2"/>
         <v>-0.14843187720224371</v>
       </c>
-      <c r="S108" s="36">
-        <f t="shared" si="7"/>
+      <c r="T108" s="36">
+        <f>LN(E108)-LN(E107)</f>
         <v>4.9259844864820712E-3</v>
       </c>
-      <c r="T108" s="36">
-        <f t="shared" si="8"/>
+      <c r="U108" s="36">
+        <f>LN(F108)-LN(F107)</f>
         <v>4.8276291573921881E-2</v>
       </c>
     </row>
-    <row r="109" spans="1:20">
+    <row r="109" spans="1:21">
       <c r="A109" s="22">
         <v>41517</v>
       </c>
@@ -11345,31 +11675,34 @@
         <v>1632.9711500000001</v>
       </c>
       <c r="G109" s="36">
-        <f t="shared" si="10"/>
+        <f t="shared" si="1"/>
         <v>1.5525259921971783E-3</v>
       </c>
-      <c r="P109" s="29">
-        <f t="shared" si="6"/>
+      <c r="P109" s="22">
+        <v>41517</v>
+      </c>
+      <c r="Q109" s="29">
+        <f>LN(D109)-LN(D108)</f>
         <v>2.676426220526551E-3</v>
       </c>
-      <c r="Q109" s="29">
-        <f t="shared" si="9"/>
+      <c r="R109" s="29">
+        <f>LN(D108)-LN(D107)</f>
         <v>-0.21860539803998513</v>
       </c>
-      <c r="R109" s="29">
-        <f t="shared" si="11"/>
+      <c r="S109" s="29">
+        <f t="shared" si="2"/>
         <v>-0.1545426236751144</v>
       </c>
-      <c r="S109" s="36">
-        <f t="shared" si="7"/>
+      <c r="T109" s="36">
+        <f>LN(E109)-LN(E108)</f>
         <v>-6.8276076091993598E-2</v>
       </c>
-      <c r="T109" s="36">
-        <f t="shared" si="8"/>
+      <c r="U109" s="36">
+        <f>LN(F109)-LN(F108)</f>
         <v>-3.1794603231165119E-2</v>
       </c>
     </row>
-    <row r="110" spans="1:20">
+    <row r="110" spans="1:21">
       <c r="A110" s="22">
         <v>41547</v>
       </c>
@@ -11389,31 +11722,34 @@
         <v>1681.54666</v>
       </c>
       <c r="G110" s="36">
-        <f t="shared" si="10"/>
+        <f t="shared" si="1"/>
         <v>4.3548675830580107E-2</v>
       </c>
-      <c r="P110" s="29">
-        <f t="shared" si="6"/>
+      <c r="P110" s="22">
+        <v>41547</v>
+      </c>
+      <c r="Q110" s="29">
+        <f>LN(D110)-LN(D109)</f>
         <v>0.1506664184072104</v>
       </c>
-      <c r="Q110" s="29">
-        <f t="shared" si="9"/>
+      <c r="R110" s="29">
+        <f>LN(D109)-LN(D108)</f>
         <v>2.676426220526551E-3</v>
       </c>
-      <c r="R110" s="29">
-        <f t="shared" si="11"/>
+      <c r="S110" s="29">
+        <f t="shared" si="2"/>
         <v>0.19014586981021964</v>
       </c>
-      <c r="S110" s="36">
-        <f t="shared" si="7"/>
+      <c r="T110" s="36">
+        <f>LN(E110)-LN(E109)</f>
         <v>-7.4261596910965011E-3</v>
       </c>
-      <c r="T110" s="36">
-        <f t="shared" si="8"/>
+      <c r="U110" s="36">
+        <f>LN(F110)-LN(F109)</f>
         <v>2.931285388531446E-2</v>
       </c>
     </row>
-    <row r="111" spans="1:20">
+    <row r="111" spans="1:21">
       <c r="A111" s="22">
         <v>41578</v>
       </c>
@@ -11433,31 +11769,34 @@
         <v>1756.5446300000001</v>
       </c>
       <c r="G111" s="36">
-        <f t="shared" si="10"/>
+        <f t="shared" si="1"/>
         <v>-6.606523700098442E-2</v>
       </c>
-      <c r="P111" s="29">
-        <f t="shared" si="6"/>
+      <c r="P111" s="22">
+        <v>41578</v>
+      </c>
+      <c r="Q111" s="29">
+        <f>LN(D111)-LN(D110)</f>
         <v>4.9542217059425298E-2</v>
       </c>
-      <c r="Q111" s="29">
-        <f t="shared" si="9"/>
+      <c r="R111" s="29">
+        <f>LN(D110)-LN(D109)</f>
         <v>0.1506664184072104</v>
       </c>
-      <c r="R111" s="29">
-        <f t="shared" si="11"/>
+      <c r="S111" s="29">
+        <f t="shared" si="2"/>
         <v>-0.10553505241704109</v>
       </c>
-      <c r="S111" s="36">
-        <f t="shared" si="7"/>
+      <c r="T111" s="36">
+        <f>LN(E111)-LN(E110)</f>
         <v>-1.837790097839509E-2</v>
       </c>
-      <c r="T111" s="36">
-        <f t="shared" si="8"/>
+      <c r="U111" s="36">
+        <f>LN(F111)-LN(F110)</f>
         <v>4.3634600036941862E-2</v>
       </c>
     </row>
-    <row r="112" spans="1:20">
+    <row r="112" spans="1:21">
       <c r="A112" s="22">
         <v>41608</v>
       </c>
@@ -11477,27 +11816,30 @@
         <v>1805.81269</v>
       </c>
       <c r="G112" s="36">
-        <f t="shared" si="10"/>
+        <f t="shared" si="1"/>
         <v>8.1182450825896275E-3</v>
       </c>
-      <c r="P112" s="29">
-        <f t="shared" si="6"/>
+      <c r="P112" s="22">
+        <v>41608</v>
+      </c>
+      <c r="Q112" s="29">
+        <f>LN(D112)-LN(D111)</f>
         <v>-1.8475344911552227E-2</v>
       </c>
-      <c r="Q112" s="29">
-        <f t="shared" si="9"/>
+      <c r="R112" s="29">
+        <f>LN(D111)-LN(D110)</f>
         <v>4.9542217059425298E-2</v>
       </c>
-      <c r="R112" s="29">
-        <f t="shared" si="11"/>
+      <c r="S112" s="29">
+        <f t="shared" si="2"/>
         <v>1.6174861612132219E-2</v>
       </c>
-      <c r="S112" s="36">
-        <f t="shared" si="7"/>
+      <c r="T112" s="36">
+        <f>LN(E112)-LN(E111)</f>
         <v>4.5486672804442296E-2</v>
       </c>
-      <c r="T112" s="36">
-        <f t="shared" si="8"/>
+      <c r="U112" s="36">
+        <f>LN(F112)-LN(F111)</f>
         <v>2.7662133339113382E-2</v>
       </c>
     </row>
@@ -11521,27 +11863,30 @@
         <v>1848.35652</v>
       </c>
       <c r="G113" s="36">
-        <f t="shared" si="10"/>
+        <f t="shared" si="1"/>
         <v>9.2598224165983331E-3</v>
       </c>
-      <c r="P113" s="29">
-        <f t="shared" si="6"/>
+      <c r="P113" s="22">
+        <v>41639</v>
+      </c>
+      <c r="Q113" s="29">
+        <f>LN(D113)-LN(D112)</f>
         <v>-1.0564668977728786E-2</v>
       </c>
-      <c r="Q113" s="29">
-        <f t="shared" si="9"/>
+      <c r="R113" s="29">
+        <f>LN(D112)-LN(D111)</f>
         <v>-1.8475344911552227E-2</v>
       </c>
-      <c r="R113" s="29">
-        <f t="shared" si="11"/>
+      <c r="S113" s="29">
+        <f t="shared" si="2"/>
         <v>-9.4600864947640417E-3</v>
       </c>
-      <c r="S113" s="36">
-        <f t="shared" si="7"/>
+      <c r="T113" s="36">
+        <f>LN(E113)-LN(E112)</f>
         <v>1.1568689415148103E-2</v>
       </c>
-      <c r="T113" s="36">
-        <f t="shared" si="8"/>
+      <c r="U113" s="36">
+        <f>LN(F113)-LN(F112)</f>
         <v>2.3286142467497051E-2</v>
       </c>
     </row>
@@ -11565,27 +11910,30 @@
         <v>1782.5869700000001</v>
       </c>
       <c r="G114" s="36">
-        <f t="shared" si="10"/>
+        <f t="shared" si="1"/>
         <v>1.3529388226290193E-2</v>
       </c>
-      <c r="P114" s="29">
-        <f t="shared" si="6"/>
+      <c r="P114" s="22">
+        <v>41670</v>
+      </c>
+      <c r="Q114" s="29">
+        <f>LN(D114)-LN(D113)</f>
         <v>0.18301422192935135</v>
       </c>
-      <c r="Q114" s="29">
-        <f t="shared" si="9"/>
+      <c r="R114" s="29">
+        <f>LN(D113)-LN(D112)</f>
         <v>-1.0564668977728786E-2</v>
       </c>
-      <c r="R114" s="29">
-        <f t="shared" si="11"/>
+      <c r="S114" s="29">
+        <f t="shared" si="2"/>
         <v>4.0792950881286316E-2</v>
       </c>
-      <c r="S114" s="36">
-        <f t="shared" si="7"/>
+      <c r="T114" s="36">
+        <f>LN(E114)-LN(E113)</f>
         <v>1.8058587004499138E-3</v>
       </c>
-      <c r="T114" s="36">
-        <f t="shared" si="8"/>
+      <c r="U114" s="36">
+        <f>LN(F114)-LN(F113)</f>
         <v>-3.6231213550429686E-2</v>
       </c>
     </row>
@@ -11609,27 +11957,30 @@
         <v>1859.44937</v>
       </c>
       <c r="G115" s="36">
-        <f t="shared" si="10"/>
+        <f t="shared" si="1"/>
         <v>-4.1888401742486904E-2</v>
       </c>
-      <c r="P115" s="29">
-        <f t="shared" si="6"/>
+      <c r="P115" s="22">
+        <v>41698</v>
+      </c>
+      <c r="Q115" s="29">
+        <f>LN(D115)-LN(D114)</f>
         <v>-3.2358324228448865E-2</v>
       </c>
-      <c r="Q115" s="29">
-        <f t="shared" si="9"/>
+      <c r="R115" s="29">
+        <f>LN(D114)-LN(D113)</f>
         <v>0.18301422192935135</v>
       </c>
-      <c r="R115" s="29">
-        <f t="shared" si="11"/>
+      <c r="S115" s="29">
+        <f t="shared" si="2"/>
         <v>2.5082952568435957E-2</v>
       </c>
-      <c r="S115" s="36">
-        <f t="shared" si="7"/>
+      <c r="T115" s="36">
+        <f>LN(E115)-LN(E114)</f>
         <v>-9.3702158619373144E-3</v>
       </c>
-      <c r="T115" s="36">
-        <f t="shared" si="8"/>
+      <c r="U115" s="36">
+        <f>LN(F115)-LN(F114)</f>
         <v>4.2214743122997334E-2</v>
       </c>
     </row>
@@ -11653,27 +12004,30 @@
         <v>1872.33518</v>
       </c>
       <c r="G116" s="36">
-        <f t="shared" si="10"/>
+        <f t="shared" si="1"/>
         <v>2.276707192471681E-2</v>
       </c>
-      <c r="P116" s="29">
-        <f t="shared" si="6"/>
+      <c r="P116" s="22">
+        <v>41729</v>
+      </c>
+      <c r="Q116" s="29">
+        <f>LN(D116)-LN(D115)</f>
         <v>0.13541995461653045</v>
       </c>
-      <c r="Q116" s="29">
-        <f t="shared" si="9"/>
+      <c r="R116" s="29">
+        <f>LN(D115)-LN(D114)</f>
         <v>-3.2358324228448865E-2</v>
       </c>
-      <c r="R116" s="29">
-        <f t="shared" si="11"/>
+      <c r="S116" s="29">
+        <f t="shared" si="2"/>
         <v>2.2339317348322396E-2</v>
       </c>
-      <c r="S116" s="36">
-        <f t="shared" si="7"/>
+      <c r="T116" s="36">
+        <f>LN(E116)-LN(E115)</f>
         <v>2.1467356986852093E-2</v>
       </c>
-      <c r="T116" s="36">
-        <f t="shared" si="8"/>
+      <c r="U116" s="36">
+        <f>LN(F116)-LN(F115)</f>
         <v>6.906004910403496E-3</v>
       </c>
     </row>
@@ -11697,27 +12051,30 @@
         <v>1883.9501299999999</v>
       </c>
       <c r="G117" s="36">
-        <f t="shared" si="10"/>
+        <f t="shared" si="1"/>
         <v>-4.0391551544523376E-2</v>
       </c>
-      <c r="P117" s="29">
-        <f t="shared" si="6"/>
+      <c r="P117" s="22">
+        <v>41759</v>
+      </c>
+      <c r="Q117" s="29">
+        <f>LN(D117)-LN(D116)</f>
         <v>-0.18110214541258784</v>
       </c>
-      <c r="Q117" s="29">
-        <f t="shared" si="9"/>
+      <c r="R117" s="29">
+        <f>LN(D116)-LN(D115)</f>
         <v>0.13541995461653045</v>
       </c>
-      <c r="R117" s="29">
-        <f t="shared" si="11"/>
+      <c r="S117" s="29">
+        <f t="shared" si="2"/>
         <v>-6.9502003352733155E-2</v>
       </c>
-      <c r="S117" s="36">
-        <f t="shared" si="7"/>
+      <c r="T117" s="36">
+        <f>LN(E117)-LN(E116)</f>
         <v>2.7991248913719402E-2</v>
       </c>
-      <c r="T117" s="36">
-        <f t="shared" si="8"/>
+      <c r="U117" s="36">
+        <f>LN(F117)-LN(F116)</f>
         <v>6.1842943545045159E-3</v>
       </c>
     </row>
@@ -11741,27 +12098,30 @@
         <v>1923.57266</v>
       </c>
       <c r="G118" s="36">
-        <f t="shared" si="10"/>
+        <f t="shared" si="1"/>
         <v>6.9270991207958224E-2</v>
       </c>
-      <c r="P118" s="29">
-        <f t="shared" si="6"/>
+      <c r="P118" s="22">
+        <v>41790</v>
+      </c>
+      <c r="Q118" s="29">
+        <f>LN(D118)-LN(D117)</f>
         <v>-1.4373892679955702E-2</v>
       </c>
-      <c r="Q118" s="29">
-        <f t="shared" si="9"/>
+      <c r="R118" s="29">
+        <f>LN(D117)-LN(D116)</f>
         <v>-0.18110214541258784</v>
       </c>
-      <c r="R118" s="29">
-        <f t="shared" si="11"/>
+      <c r="S118" s="29">
+        <f t="shared" si="2"/>
         <v>6.7833812382245284E-2</v>
       </c>
-      <c r="S118" s="36">
-        <f t="shared" si="7"/>
+      <c r="T118" s="36">
+        <f>LN(E118)-LN(E117)</f>
         <v>1.0242455331053391E-2</v>
       </c>
-      <c r="T118" s="36">
-        <f t="shared" si="8"/>
+      <c r="U118" s="36">
+        <f>LN(F118)-LN(F117)</f>
         <v>2.0813511858464473E-2</v>
       </c>
     </row>
@@ -11785,27 +12145,30 @@
         <v>1960.2312400000001</v>
       </c>
       <c r="G119" s="36">
-        <f t="shared" si="10"/>
+        <f t="shared" si="1"/>
         <v>1.6199826727797673E-2</v>
       </c>
-      <c r="P119" s="29">
-        <f t="shared" si="6"/>
+      <c r="P119" s="22">
+        <v>41820</v>
+      </c>
+      <c r="Q119" s="29">
+        <f>LN(D119)-LN(D118)</f>
         <v>3.9813345317204707E-2</v>
       </c>
-      <c r="Q119" s="29">
-        <f t="shared" si="9"/>
+      <c r="R119" s="29">
+        <f>LN(D118)-LN(D117)</f>
         <v>-1.4373892679955702E-2</v>
       </c>
-      <c r="R119" s="29">
-        <f t="shared" si="11"/>
+      <c r="S119" s="29">
+        <f t="shared" si="2"/>
         <v>7.4136157146545756E-2</v>
       </c>
-      <c r="S119" s="36">
-        <f t="shared" si="7"/>
+      <c r="T119" s="36">
+        <f>LN(E119)-LN(E118)</f>
         <v>-2.298570277804024E-2</v>
       </c>
-      <c r="T119" s="36">
-        <f t="shared" si="8"/>
+      <c r="U119" s="36">
+        <f>LN(F119)-LN(F118)</f>
         <v>1.887822848893439E-2</v>
       </c>
     </row>
@@ -11829,27 +12192,30 @@
         <v>1930.6738700000001</v>
       </c>
       <c r="G120" s="36">
-        <f t="shared" si="10"/>
+        <f t="shared" si="1"/>
         <v>-7.5824590058432631E-2</v>
       </c>
-      <c r="P120" s="29">
-        <f t="shared" si="6"/>
+      <c r="P120" s="22">
+        <v>41851</v>
+      </c>
+      <c r="Q120" s="29">
+        <f>LN(D120)-LN(D119)</f>
         <v>-0.14485928083369792</v>
       </c>
-      <c r="Q120" s="29">
-        <f t="shared" si="9"/>
+      <c r="R120" s="29">
+        <f>LN(D119)-LN(D118)</f>
         <v>3.9813345317204707E-2</v>
       </c>
-      <c r="R120" s="29">
-        <f t="shared" si="11"/>
+      <c r="S120" s="29">
+        <f t="shared" si="2"/>
         <v>-0.21860539803998513</v>
       </c>
-      <c r="S120" s="36">
-        <f t="shared" si="7"/>
+      <c r="T120" s="36">
+        <f>LN(E120)-LN(E119)</f>
         <v>-5.3238248613425299E-2</v>
       </c>
-      <c r="T120" s="36">
-        <f t="shared" si="8"/>
+      <c r="U120" s="36">
+        <f>LN(F120)-LN(F119)</f>
         <v>-1.5193348458585554E-2</v>
       </c>
     </row>
@@ -11873,27 +12239,30 @@
         <v>2003.3677</v>
       </c>
       <c r="G121" s="36">
-        <f t="shared" si="10"/>
+        <f t="shared" si="1"/>
         <v>2.9306419048563407E-2</v>
       </c>
-      <c r="P121" s="29">
-        <f t="shared" si="6"/>
+      <c r="P121" s="22">
+        <v>41882</v>
+      </c>
+      <c r="Q121" s="29">
+        <f>LN(D121)-LN(D120)</f>
         <v>-8.1382708145326887E-2</v>
       </c>
-      <c r="Q121" s="29">
-        <f t="shared" si="9"/>
+      <c r="R121" s="29">
+        <f>LN(D120)-LN(D119)</f>
         <v>-0.14485928083369792</v>
       </c>
-      <c r="R121" s="29">
-        <f t="shared" si="11"/>
+      <c r="S121" s="29">
+        <f t="shared" si="2"/>
         <v>2.676426220526551E-3</v>
       </c>
-      <c r="S121" s="36">
-        <f t="shared" si="7"/>
+      <c r="T121" s="36">
+        <f>LN(E121)-LN(E120)</f>
         <v>-4.0424644381978903E-2</v>
       </c>
-      <c r="T121" s="36">
-        <f t="shared" si="8"/>
+      <c r="U121" s="36">
+        <f>LN(F121)-LN(F120)</f>
         <v>3.6960517057329945E-2</v>
       </c>
     </row>
@@ -11917,27 +12286,30 @@
         <v>1972.2851499999999</v>
       </c>
       <c r="G122" s="36">
-        <f t="shared" si="10"/>
+        <f t="shared" si="1"/>
         <v>4.5261611118050209E-2</v>
       </c>
-      <c r="P122" s="29">
-        <f t="shared" si="6"/>
+      <c r="P122" s="22">
+        <v>41912</v>
+      </c>
+      <c r="Q122" s="29">
+        <f>LN(D122)-LN(D121)</f>
         <v>0.13779774008125223</v>
       </c>
-      <c r="Q122" s="29">
-        <f t="shared" si="9"/>
+      <c r="R122" s="29">
+        <f>LN(D121)-LN(D120)</f>
         <v>-8.1382708145326887E-2</v>
       </c>
-      <c r="R122" s="29">
-        <f t="shared" si="11"/>
+      <c r="S122" s="29">
+        <f t="shared" si="2"/>
         <v>0.1506664184072104</v>
       </c>
-      <c r="S122" s="36">
-        <f t="shared" si="7"/>
+      <c r="T122" s="36">
+        <f>LN(E122)-LN(E121)</f>
         <v>-3.8466694319204242E-2</v>
       </c>
-      <c r="T122" s="36">
-        <f t="shared" si="8"/>
+      <c r="U122" s="36">
+        <f>LN(F122)-LN(F121)</f>
         <v>-1.5636769355522162E-2</v>
       </c>
     </row>
@@ -11961,27 +12333,30 @@
         <v>2018.0545</v>
       </c>
       <c r="G123" s="36">
-        <f t="shared" si="10"/>
+        <f t="shared" si="1"/>
         <v>5.655213484956379E-3</v>
       </c>
-      <c r="P123" s="29">
-        <f t="shared" si="6"/>
+      <c r="P123" s="22">
+        <v>41943</v>
+      </c>
+      <c r="Q123" s="29">
+        <f>LN(D123)-LN(D122)</f>
         <v>0.13838301608371673</v>
       </c>
-      <c r="Q123" s="29">
-        <f t="shared" si="9"/>
+      <c r="R123" s="29">
+        <f>LN(D122)-LN(D121)</f>
         <v>0.13779774008125223</v>
       </c>
-      <c r="R123" s="29">
-        <f t="shared" si="11"/>
+      <c r="S123" s="29">
+        <f t="shared" si="2"/>
         <v>4.9542217059425298E-2</v>
       </c>
-      <c r="S123" s="36">
-        <f t="shared" si="7"/>
+      <c r="T123" s="36">
+        <f>LN(E123)-LN(E122)</f>
         <v>8.7454504262267863E-2</v>
       </c>
-      <c r="T123" s="36">
-        <f t="shared" si="8"/>
+      <c r="U123" s="36">
+        <f>LN(F123)-LN(F122)</f>
         <v>2.2941083385857652E-2</v>
       </c>
     </row>
@@ -12005,27 +12380,30 @@
         <v>2067.5620399999998</v>
       </c>
       <c r="G124" s="36">
-        <f t="shared" si="10"/>
+        <f t="shared" si="1"/>
         <v>-1.5155931208999222E-2</v>
       </c>
-      <c r="P124" s="29">
-        <f t="shared" si="6"/>
+      <c r="P124" s="22">
+        <v>41973</v>
+      </c>
+      <c r="Q124" s="29">
+        <f>LN(D124)-LN(D123)</f>
         <v>-0.15840747313821346</v>
       </c>
-      <c r="Q124" s="29">
-        <f t="shared" si="9"/>
+      <c r="R124" s="29">
+        <f>LN(D123)-LN(D122)</f>
         <v>0.13838301608371673</v>
       </c>
-      <c r="R124" s="29">
-        <f t="shared" si="11"/>
+      <c r="S124" s="29">
+        <f t="shared" si="2"/>
         <v>-1.8475344911552227E-2</v>
       </c>
-      <c r="S124" s="36">
-        <f t="shared" si="7"/>
+      <c r="T124" s="36">
+        <f>LN(E124)-LN(E123)</f>
         <v>7.1252681489738179E-2</v>
       </c>
-      <c r="T124" s="36">
-        <f t="shared" si="8"/>
+      <c r="U124" s="36">
+        <f>LN(F124)-LN(F123)</f>
         <v>2.4236226216341805E-2</v>
       </c>
     </row>
@@ -12049,27 +12427,30 @@
         <v>2063.83</v>
       </c>
       <c r="G125" s="36">
-        <f t="shared" si="10"/>
+        <f t="shared" si="1"/>
         <v>6.2795351331053878E-2</v>
       </c>
-      <c r="P125" s="29">
-        <f t="shared" si="6"/>
+      <c r="P125" s="22">
+        <v>42004</v>
+      </c>
+      <c r="Q125" s="29">
+        <f>LN(D125)-LN(D124)</f>
         <v>0.16619716692692243</v>
       </c>
-      <c r="Q125" s="29">
-        <f t="shared" si="9"/>
+      <c r="R125" s="29">
+        <f>LN(D124)-LN(D123)</f>
         <v>-0.15840747313821346</v>
       </c>
-      <c r="R125" s="29">
-        <f t="shared" si="11"/>
+      <c r="S125" s="29">
+        <f t="shared" si="2"/>
         <v>-1.0564668977728786E-2</v>
       </c>
-      <c r="S125" s="36">
-        <f t="shared" si="7"/>
+      <c r="T125" s="36">
+        <f>LN(E125)-LN(E124)</f>
         <v>6.7702840228428984E-2</v>
       </c>
-      <c r="T125" s="36">
-        <f t="shared" si="8"/>
+      <c r="U125" s="36">
+        <f>LN(F125)-LN(F124)</f>
         <v>-1.8066748345377803E-3</v>
       </c>
     </row>
@@ -12077,47 +12458,46 @@
       <c r="A126" s="22">
         <v>42035</v>
       </c>
-      <c r="B126" s="49">
+      <c r="B126" s="47">
         <f>EXP(Q126)*B125</f>
-        <v>4637823.3060980821</v>
+        <v>4445646.0290902155</v>
       </c>
       <c r="G126" s="36">
-        <f>$N$20+$M$20*R126+$L$20*S126+$K$20*T126+$J$20*U126</f>
-        <v>-4.2331092657416228E-3</v>
-      </c>
-      <c r="L126" s="47" t="s">
+        <f>$N$20+$M$20*S126+$L$20*T126+$K$20*U126+$J$20*V126</f>
+        <v>-4.6553053586669897E-2</v>
+      </c>
+      <c r="L126" s="49" t="s">
         <v>31</v>
       </c>
-      <c r="M126" s="47"/>
+      <c r="M126" s="49"/>
       <c r="P126" s="22">
         <v>42035</v>
       </c>
-      <c r="Q126" s="48">
+      <c r="Q126" s="46">
         <f>G126</f>
-        <v>-4.2331092657416228E-3</v>
+        <v>-4.6553053586669897E-2</v>
       </c>
       <c r="R126" s="29">
         <f>LN(B125)-LN(B124)</f>
         <v>0.18229761076946716</v>
       </c>
       <c r="S126" s="29">
-        <f t="shared" ref="S126" si="12">LN(B114)-LN(B113)</f>
+        <f>LN(B114)-LN(B113)</f>
         <v>0.18469194862135119</v>
       </c>
       <c r="T126" s="18">
-        <f>T125</f>
-        <v>-1.8066748345377803E-3</v>
+        <v>0</v>
       </c>
       <c r="U126" s="36">
-        <f>U125</f>
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="P4:T4"/>
+    <mergeCell ref="Q4:U4"/>
     <mergeCell ref="L126:M126"/>
   </mergeCells>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>